--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>PRQR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,88 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="E8" s="3">
-        <v>1600</v>
+        <v>6400</v>
       </c>
       <c r="F8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31600</v>
+        <v>49700</v>
       </c>
       <c r="E12" s="3">
-        <v>33300</v>
+        <v>31900</v>
       </c>
       <c r="F12" s="3">
-        <v>34100</v>
+        <v>33600</v>
       </c>
       <c r="G12" s="3">
-        <v>25300</v>
+        <v>34400</v>
       </c>
       <c r="H12" s="3">
-        <v>11100</v>
+        <v>25500</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="J12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
       </c>
       <c r="F15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46200</v>
+        <v>65800</v>
       </c>
       <c r="E17" s="3">
-        <v>46100</v>
+        <v>46600</v>
       </c>
       <c r="F17" s="3">
-        <v>45500</v>
+        <v>46500</v>
       </c>
       <c r="G17" s="3">
-        <v>33200</v>
+        <v>45900</v>
       </c>
       <c r="H17" s="3">
-        <v>18400</v>
+        <v>33500</v>
       </c>
       <c r="I17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39800</v>
+        <v>-63600</v>
       </c>
       <c r="E18" s="3">
-        <v>-44500</v>
+        <v>-40200</v>
       </c>
       <c r="F18" s="3">
-        <v>-43500</v>
+        <v>-44900</v>
       </c>
       <c r="G18" s="3">
-        <v>-29600</v>
+        <v>-43800</v>
       </c>
       <c r="H18" s="3">
-        <v>-18100</v>
+        <v>-29900</v>
       </c>
       <c r="I18" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,133 +1050,146 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>7200</v>
-      </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-38700</v>
+        <v>-59200</v>
       </c>
       <c r="E21" s="3">
-        <v>-46100</v>
+        <v>-39100</v>
       </c>
       <c r="F21" s="3">
-        <v>-41000</v>
+        <v>-46500</v>
       </c>
       <c r="G21" s="3">
-        <v>-21900</v>
+        <v>-41300</v>
       </c>
       <c r="H21" s="3">
-        <v>-12900</v>
+        <v>-22100</v>
       </c>
       <c r="I21" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-40700</v>
+        <v>-62700</v>
       </c>
       <c r="E23" s="3">
-        <v>-48000</v>
+        <v>-41100</v>
       </c>
       <c r="F23" s="3">
-        <v>-42900</v>
+        <v>-48400</v>
       </c>
       <c r="G23" s="3">
-        <v>-22900</v>
+        <v>-43300</v>
       </c>
       <c r="H23" s="3">
-        <v>-13300</v>
+        <v>-23100</v>
       </c>
       <c r="I23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1155,21 +1200,24 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40700</v>
+        <v>-62900</v>
       </c>
       <c r="E26" s="3">
-        <v>-48000</v>
+        <v>-41100</v>
       </c>
       <c r="F26" s="3">
-        <v>-42900</v>
+        <v>-48400</v>
       </c>
       <c r="G26" s="3">
-        <v>-22900</v>
+        <v>-43300</v>
       </c>
       <c r="H26" s="3">
-        <v>-13300</v>
+        <v>-23100</v>
       </c>
       <c r="I26" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-40500</v>
+        <v>-62600</v>
       </c>
       <c r="E27" s="3">
-        <v>-47900</v>
+        <v>-40900</v>
       </c>
       <c r="F27" s="3">
-        <v>-42900</v>
+        <v>-48300</v>
       </c>
       <c r="G27" s="3">
-        <v>-22900</v>
+        <v>-43300</v>
       </c>
       <c r="H27" s="3">
-        <v>-13300</v>
+        <v>-23100</v>
       </c>
       <c r="I27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-40500</v>
+        <v>-62600</v>
       </c>
       <c r="E33" s="3">
-        <v>-47900</v>
+        <v>-40900</v>
       </c>
       <c r="F33" s="3">
-        <v>-42900</v>
+        <v>-48300</v>
       </c>
       <c r="G33" s="3">
-        <v>-22900</v>
+        <v>-43300</v>
       </c>
       <c r="H33" s="3">
-        <v>-13300</v>
+        <v>-23100</v>
       </c>
       <c r="I33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-40500</v>
+        <v>-62600</v>
       </c>
       <c r="E35" s="3">
-        <v>-47900</v>
+        <v>-40900</v>
       </c>
       <c r="F35" s="3">
-        <v>-42900</v>
+        <v>-48300</v>
       </c>
       <c r="G35" s="3">
-        <v>-22900</v>
+        <v>-43300</v>
       </c>
       <c r="H35" s="3">
-        <v>-13300</v>
+        <v>-23100</v>
       </c>
       <c r="I35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115900</v>
+        <v>124200</v>
       </c>
       <c r="E41" s="3">
-        <v>52800</v>
+        <v>117200</v>
       </c>
       <c r="F41" s="3">
-        <v>65000</v>
+        <v>53400</v>
       </c>
       <c r="G41" s="3">
-        <v>104200</v>
+        <v>65700</v>
       </c>
       <c r="H41" s="3">
-        <v>123800</v>
+        <v>105300</v>
       </c>
       <c r="I41" s="3">
-        <v>4500</v>
+        <v>125100</v>
       </c>
       <c r="J41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,159 +1775,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119000</v>
+        <v>127300</v>
       </c>
       <c r="E46" s="3">
-        <v>55500</v>
+        <v>120300</v>
       </c>
       <c r="F46" s="3">
-        <v>68100</v>
+        <v>56100</v>
       </c>
       <c r="G46" s="3">
-        <v>107400</v>
+        <v>68800</v>
       </c>
       <c r="H46" s="3">
-        <v>125100</v>
+        <v>108500</v>
       </c>
       <c r="I46" s="3">
+        <v>126400</v>
+      </c>
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,9 +2006,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>121000</v>
+        <v>130400</v>
       </c>
       <c r="E54" s="3">
-        <v>58300</v>
+        <v>122300</v>
       </c>
       <c r="F54" s="3">
-        <v>72000</v>
+        <v>58900</v>
       </c>
       <c r="G54" s="3">
-        <v>109900</v>
+        <v>72700</v>
       </c>
       <c r="H54" s="3">
-        <v>126500</v>
+        <v>111100</v>
       </c>
       <c r="I54" s="3">
-        <v>4900</v>
+        <v>127900</v>
       </c>
       <c r="J54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,50 +2138,54 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2060,107 +2193,119 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8800</v>
+        <v>10800</v>
       </c>
       <c r="E59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
-        <v>7000</v>
-      </c>
       <c r="G59" s="3">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="H59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9000</v>
+        <v>12200</v>
       </c>
       <c r="E60" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
-        <v>6000</v>
-      </c>
       <c r="H60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10300</v>
+        <v>14100</v>
       </c>
       <c r="E61" s="3">
-        <v>5800</v>
+        <v>10400</v>
       </c>
       <c r="F61" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G61" s="3">
         <v>6300</v>
       </c>
-      <c r="G61" s="3">
-        <v>5300</v>
-      </c>
       <c r="H61" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19000</v>
+        <v>25800</v>
       </c>
       <c r="E66" s="3">
-        <v>15100</v>
+        <v>19200</v>
       </c>
       <c r="F66" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="G66" s="3">
-        <v>11300</v>
+        <v>13800</v>
       </c>
       <c r="H66" s="3">
-        <v>6400</v>
+        <v>11400</v>
       </c>
       <c r="I66" s="3">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="J66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,29 +2612,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-170700</v>
+        <v>-235000</v>
       </c>
       <c r="E72" s="3">
-        <v>-131100</v>
+        <v>-172500</v>
       </c>
       <c r="F72" s="3">
-        <v>-83200</v>
+        <v>-132500</v>
       </c>
       <c r="G72" s="3">
-        <v>-40200</v>
+        <v>-84000</v>
       </c>
       <c r="H72" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-40700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-17500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>102000</v>
+        <v>104700</v>
       </c>
       <c r="E76" s="3">
-        <v>43200</v>
+        <v>103100</v>
       </c>
       <c r="F76" s="3">
-        <v>58300</v>
+        <v>43700</v>
       </c>
       <c r="G76" s="3">
-        <v>98600</v>
+        <v>59000</v>
       </c>
       <c r="H76" s="3">
-        <v>120100</v>
+        <v>99700</v>
       </c>
       <c r="I76" s="3">
+        <v>121400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-40500</v>
+        <v>-62600</v>
       </c>
       <c r="E81" s="3">
-        <v>-47900</v>
+        <v>-40900</v>
       </c>
       <c r="F81" s="3">
-        <v>-42900</v>
+        <v>-48300</v>
       </c>
       <c r="G81" s="3">
-        <v>-22900</v>
+        <v>-43300</v>
       </c>
       <c r="H81" s="3">
-        <v>-13300</v>
+        <v>-23100</v>
       </c>
       <c r="I81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31300</v>
+        <v>-48700</v>
       </c>
       <c r="E89" s="3">
-        <v>-38400</v>
+        <v>-31600</v>
       </c>
       <c r="F89" s="3">
-        <v>-37600</v>
+        <v>-38700</v>
       </c>
       <c r="G89" s="3">
-        <v>-26600</v>
+        <v>-37900</v>
       </c>
       <c r="H89" s="3">
-        <v>-15900</v>
+        <v>-26800</v>
       </c>
       <c r="I89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,59 +3421,65 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>94900</v>
+        <v>55600</v>
       </c>
       <c r="E100" s="3">
-        <v>29300</v>
+        <v>95800</v>
       </c>
       <c r="F100" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
-        <v>131600</v>
-      </c>
       <c r="I100" s="3">
+        <v>132800</v>
+      </c>
+      <c r="J100" s="3">
         <v>7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6700</v>
       </c>
-      <c r="H101" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>4900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3239,37 +3487,43 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>63100</v>
+        <v>7100</v>
       </c>
       <c r="E102" s="3">
-        <v>-12200</v>
+        <v>63700</v>
       </c>
       <c r="F102" s="3">
-        <v>-39200</v>
+        <v>-12300</v>
       </c>
       <c r="G102" s="3">
-        <v>-19600</v>
+        <v>-39500</v>
       </c>
       <c r="H102" s="3">
-        <v>119300</v>
+        <v>-19800</v>
       </c>
       <c r="I102" s="3">
+        <v>120300</v>
+      </c>
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E8" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="F8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G8" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H8" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>49700</v>
+        <v>53100</v>
       </c>
       <c r="E12" s="3">
-        <v>31900</v>
+        <v>34100</v>
       </c>
       <c r="F12" s="3">
-        <v>33600</v>
+        <v>35900</v>
       </c>
       <c r="G12" s="3">
-        <v>34400</v>
+        <v>36700</v>
       </c>
       <c r="H12" s="3">
-        <v>25500</v>
+        <v>27300</v>
       </c>
       <c r="I12" s="3">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="J12" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
       </c>
       <c r="F15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65800</v>
+        <v>70200</v>
       </c>
       <c r="E17" s="3">
-        <v>46600</v>
+        <v>49700</v>
       </c>
       <c r="F17" s="3">
-        <v>46500</v>
+        <v>49700</v>
       </c>
       <c r="G17" s="3">
-        <v>45900</v>
+        <v>49000</v>
       </c>
       <c r="H17" s="3">
-        <v>33500</v>
+        <v>35800</v>
       </c>
       <c r="I17" s="3">
-        <v>18600</v>
+        <v>19800</v>
       </c>
       <c r="J17" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-63600</v>
+        <v>-68000</v>
       </c>
       <c r="E18" s="3">
-        <v>-40200</v>
+        <v>-42900</v>
       </c>
       <c r="F18" s="3">
-        <v>-44900</v>
+        <v>-47900</v>
       </c>
       <c r="G18" s="3">
-        <v>-43800</v>
+        <v>-46800</v>
       </c>
       <c r="H18" s="3">
-        <v>-29900</v>
+        <v>-31900</v>
       </c>
       <c r="I18" s="3">
-        <v>-18200</v>
+        <v>-19500</v>
       </c>
       <c r="J18" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>7300</v>
+        <v>7800</v>
       </c>
       <c r="I20" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-59200</v>
+        <v>-63300</v>
       </c>
       <c r="E21" s="3">
-        <v>-39100</v>
+        <v>-41700</v>
       </c>
       <c r="F21" s="3">
-        <v>-46500</v>
+        <v>-49700</v>
       </c>
       <c r="G21" s="3">
-        <v>-41300</v>
+        <v>-44100</v>
       </c>
       <c r="H21" s="3">
-        <v>-22100</v>
+        <v>-23600</v>
       </c>
       <c r="I21" s="3">
-        <v>-13000</v>
+        <v>-13900</v>
       </c>
       <c r="J21" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
@@ -1135,7 +1135,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62700</v>
+        <v>-67000</v>
       </c>
       <c r="E23" s="3">
-        <v>-41100</v>
+        <v>-43900</v>
       </c>
       <c r="F23" s="3">
-        <v>-48400</v>
+        <v>-51700</v>
       </c>
       <c r="G23" s="3">
-        <v>-43300</v>
+        <v>-46300</v>
       </c>
       <c r="H23" s="3">
-        <v>-23100</v>
+        <v>-24600</v>
       </c>
       <c r="I23" s="3">
-        <v>-13400</v>
+        <v>-14300</v>
       </c>
       <c r="J23" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-62900</v>
+        <v>-67100</v>
       </c>
       <c r="E26" s="3">
-        <v>-41100</v>
+        <v>-43900</v>
       </c>
       <c r="F26" s="3">
-        <v>-48400</v>
+        <v>-51700</v>
       </c>
       <c r="G26" s="3">
-        <v>-43300</v>
+        <v>-46300</v>
       </c>
       <c r="H26" s="3">
-        <v>-23100</v>
+        <v>-24600</v>
       </c>
       <c r="I26" s="3">
-        <v>-13400</v>
+        <v>-14300</v>
       </c>
       <c r="J26" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-62600</v>
+        <v>-66800</v>
       </c>
       <c r="E27" s="3">
-        <v>-40900</v>
+        <v>-43600</v>
       </c>
       <c r="F27" s="3">
-        <v>-48300</v>
+        <v>-51600</v>
       </c>
       <c r="G27" s="3">
-        <v>-43300</v>
+        <v>-46300</v>
       </c>
       <c r="H27" s="3">
-        <v>-23100</v>
+        <v>-24600</v>
       </c>
       <c r="I27" s="3">
-        <v>-13400</v>
+        <v>-14300</v>
       </c>
       <c r="J27" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-7300</v>
+        <v>-7800</v>
       </c>
       <c r="I32" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-62600</v>
+        <v>-66800</v>
       </c>
       <c r="E33" s="3">
-        <v>-40900</v>
+        <v>-43600</v>
       </c>
       <c r="F33" s="3">
-        <v>-48300</v>
+        <v>-51600</v>
       </c>
       <c r="G33" s="3">
-        <v>-43300</v>
+        <v>-46300</v>
       </c>
       <c r="H33" s="3">
-        <v>-23100</v>
+        <v>-24600</v>
       </c>
       <c r="I33" s="3">
-        <v>-13400</v>
+        <v>-14300</v>
       </c>
       <c r="J33" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-62600</v>
+        <v>-66800</v>
       </c>
       <c r="E35" s="3">
-        <v>-40900</v>
+        <v>-43600</v>
       </c>
       <c r="F35" s="3">
-        <v>-48300</v>
+        <v>-51600</v>
       </c>
       <c r="G35" s="3">
-        <v>-43300</v>
+        <v>-46300</v>
       </c>
       <c r="H35" s="3">
-        <v>-23100</v>
+        <v>-24600</v>
       </c>
       <c r="I35" s="3">
-        <v>-13400</v>
+        <v>-14300</v>
       </c>
       <c r="J35" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124200</v>
+        <v>132400</v>
       </c>
       <c r="E41" s="3">
-        <v>117200</v>
+        <v>124900</v>
       </c>
       <c r="F41" s="3">
-        <v>53400</v>
+        <v>56900</v>
       </c>
       <c r="G41" s="3">
-        <v>65700</v>
+        <v>70000</v>
       </c>
       <c r="H41" s="3">
-        <v>105300</v>
+        <v>112200</v>
       </c>
       <c r="I41" s="3">
-        <v>125100</v>
+        <v>133400</v>
       </c>
       <c r="J41" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -1722,13 +1722,13 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I45" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>127300</v>
+        <v>135600</v>
       </c>
       <c r="E46" s="3">
-        <v>120300</v>
+        <v>128200</v>
       </c>
       <c r="F46" s="3">
-        <v>56100</v>
+        <v>59800</v>
       </c>
       <c r="G46" s="3">
-        <v>68800</v>
+        <v>73400</v>
       </c>
       <c r="H46" s="3">
-        <v>108500</v>
+        <v>115700</v>
       </c>
       <c r="I46" s="3">
-        <v>126400</v>
+        <v>134700</v>
       </c>
       <c r="J46" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G48" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="H48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E54" s="3">
         <v>130400</v>
       </c>
-      <c r="E54" s="3">
-        <v>122300</v>
-      </c>
       <c r="F54" s="3">
-        <v>58900</v>
+        <v>62800</v>
       </c>
       <c r="G54" s="3">
-        <v>72700</v>
+        <v>77500</v>
       </c>
       <c r="H54" s="3">
-        <v>111100</v>
+        <v>118400</v>
       </c>
       <c r="I54" s="3">
-        <v>127900</v>
+        <v>136300</v>
       </c>
       <c r="J54" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -2148,7 +2148,7 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
@@ -2160,10 +2160,10 @@
         <v>1000</v>
       </c>
       <c r="I57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10800</v>
+        <v>11500</v>
       </c>
       <c r="E59" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="F59" s="3">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="G59" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="H59" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="I59" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="E60" s="3">
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="F60" s="3">
-        <v>9400</v>
+        <v>10000</v>
       </c>
       <c r="G60" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="H60" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="I60" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="J60" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14100</v>
+        <v>15000</v>
       </c>
       <c r="E61" s="3">
-        <v>10400</v>
+        <v>11100</v>
       </c>
       <c r="F61" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="G61" s="3">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="H61" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="I61" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25800</v>
+        <v>27500</v>
       </c>
       <c r="E66" s="3">
-        <v>19200</v>
+        <v>20500</v>
       </c>
       <c r="F66" s="3">
-        <v>15200</v>
+        <v>16300</v>
       </c>
       <c r="G66" s="3">
-        <v>13800</v>
+        <v>14700</v>
       </c>
       <c r="H66" s="3">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="I66" s="3">
-        <v>6500</v>
+        <v>6900</v>
       </c>
       <c r="J66" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-235000</v>
+        <v>-250500</v>
       </c>
       <c r="E72" s="3">
-        <v>-172500</v>
+        <v>-183900</v>
       </c>
       <c r="F72" s="3">
-        <v>-132500</v>
+        <v>-141200</v>
       </c>
       <c r="G72" s="3">
-        <v>-84000</v>
+        <v>-89600</v>
       </c>
       <c r="H72" s="3">
-        <v>-40700</v>
+        <v>-43300</v>
       </c>
       <c r="I72" s="3">
-        <v>-17500</v>
+        <v>-18700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>104700</v>
+        <v>111600</v>
       </c>
       <c r="E76" s="3">
-        <v>103100</v>
+        <v>109900</v>
       </c>
       <c r="F76" s="3">
-        <v>43700</v>
+        <v>46600</v>
       </c>
       <c r="G76" s="3">
-        <v>59000</v>
+        <v>62900</v>
       </c>
       <c r="H76" s="3">
-        <v>99700</v>
+        <v>106200</v>
       </c>
       <c r="I76" s="3">
-        <v>121400</v>
+        <v>129400</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-62600</v>
+        <v>-66800</v>
       </c>
       <c r="E81" s="3">
-        <v>-40900</v>
+        <v>-43600</v>
       </c>
       <c r="F81" s="3">
-        <v>-48300</v>
+        <v>-51600</v>
       </c>
       <c r="G81" s="3">
-        <v>-43300</v>
+        <v>-46300</v>
       </c>
       <c r="H81" s="3">
-        <v>-23100</v>
+        <v>-24600</v>
       </c>
       <c r="I81" s="3">
-        <v>-13400</v>
+        <v>-14300</v>
       </c>
       <c r="J81" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-48700</v>
+        <v>-52000</v>
       </c>
       <c r="E89" s="3">
-        <v>-31600</v>
+        <v>-33700</v>
       </c>
       <c r="F89" s="3">
-        <v>-38700</v>
+        <v>-41300</v>
       </c>
       <c r="G89" s="3">
-        <v>-37900</v>
+        <v>-40500</v>
       </c>
       <c r="H89" s="3">
-        <v>-26800</v>
+        <v>-28700</v>
       </c>
       <c r="I89" s="3">
-        <v>-16000</v>
+        <v>-17100</v>
       </c>
       <c r="J89" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="H94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>55600</v>
+        <v>59400</v>
       </c>
       <c r="E100" s="3">
-        <v>95800</v>
+        <v>102300</v>
       </c>
       <c r="F100" s="3">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I100" s="3">
-        <v>132800</v>
+        <v>141800</v>
       </c>
       <c r="J100" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="K100" s="3">
         <v>700</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
-        <v>6700</v>
+        <v>7200</v>
       </c>
       <c r="I101" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="E102" s="3">
-        <v>63700</v>
+        <v>68000</v>
       </c>
       <c r="F102" s="3">
-        <v>-12300</v>
+        <v>-13100</v>
       </c>
       <c r="G102" s="3">
-        <v>-39500</v>
+        <v>-42200</v>
       </c>
       <c r="H102" s="3">
-        <v>-19800</v>
+        <v>-21100</v>
       </c>
       <c r="I102" s="3">
-        <v>120300</v>
+        <v>128500</v>
       </c>
       <c r="J102" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -721,7 +721,7 @@
         <v>2300</v>
       </c>
       <c r="E8" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -730,7 +730,7 @@
         <v>2200</v>
       </c>
       <c r="H8" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>53100</v>
+        <v>53700</v>
       </c>
       <c r="E12" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="F12" s="3">
-        <v>35900</v>
+        <v>36300</v>
       </c>
       <c r="G12" s="3">
-        <v>36700</v>
+        <v>37100</v>
       </c>
       <c r="H12" s="3">
-        <v>27300</v>
+        <v>27600</v>
       </c>
       <c r="I12" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
         <v>1100</v>
@@ -946,7 +946,7 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70200</v>
+        <v>71000</v>
       </c>
       <c r="E17" s="3">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="F17" s="3">
-        <v>49700</v>
+        <v>50200</v>
       </c>
       <c r="G17" s="3">
-        <v>49000</v>
+        <v>49500</v>
       </c>
       <c r="H17" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="I17" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="J17" s="3">
         <v>4000</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-68000</v>
+        <v>-68700</v>
       </c>
       <c r="E18" s="3">
-        <v>-42900</v>
+        <v>-43400</v>
       </c>
       <c r="F18" s="3">
-        <v>-47900</v>
+        <v>-48400</v>
       </c>
       <c r="G18" s="3">
-        <v>-46800</v>
+        <v>-47300</v>
       </c>
       <c r="H18" s="3">
-        <v>-31900</v>
+        <v>-32300</v>
       </c>
       <c r="I18" s="3">
-        <v>-19500</v>
+        <v>-19700</v>
       </c>
       <c r="J18" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1069,10 +1069,10 @@
         <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-63300</v>
+        <v>-64000</v>
       </c>
       <c r="E21" s="3">
-        <v>-41700</v>
+        <v>-42200</v>
       </c>
       <c r="F21" s="3">
-        <v>-49700</v>
+        <v>-50300</v>
       </c>
       <c r="G21" s="3">
-        <v>-44100</v>
+        <v>-44600</v>
       </c>
       <c r="H21" s="3">
-        <v>-23600</v>
+        <v>-23900</v>
       </c>
       <c r="I21" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="J21" s="3">
         <v>-3800</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-67000</v>
+        <v>-67700</v>
       </c>
       <c r="E23" s="3">
-        <v>-43900</v>
+        <v>-44400</v>
       </c>
       <c r="F23" s="3">
-        <v>-51700</v>
+        <v>-52200</v>
       </c>
       <c r="G23" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="H23" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="I23" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J23" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67100</v>
+        <v>-67900</v>
       </c>
       <c r="E26" s="3">
-        <v>-43900</v>
+        <v>-44400</v>
       </c>
       <c r="F26" s="3">
-        <v>-51700</v>
+        <v>-52200</v>
       </c>
       <c r="G26" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="H26" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="I26" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J26" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-66800</v>
+        <v>-67600</v>
       </c>
       <c r="E27" s="3">
-        <v>-43600</v>
+        <v>-44100</v>
       </c>
       <c r="F27" s="3">
-        <v>-51600</v>
+        <v>-52200</v>
       </c>
       <c r="G27" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="H27" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="I27" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J27" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1465,10 +1465,10 @@
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-66800</v>
+        <v>-67600</v>
       </c>
       <c r="E33" s="3">
-        <v>-43600</v>
+        <v>-44100</v>
       </c>
       <c r="F33" s="3">
-        <v>-51600</v>
+        <v>-52200</v>
       </c>
       <c r="G33" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="H33" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="I33" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J33" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-66800</v>
+        <v>-67600</v>
       </c>
       <c r="E35" s="3">
-        <v>-43600</v>
+        <v>-44100</v>
       </c>
       <c r="F35" s="3">
-        <v>-51600</v>
+        <v>-52200</v>
       </c>
       <c r="G35" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="H35" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="I35" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J35" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132400</v>
+        <v>133900</v>
       </c>
       <c r="E41" s="3">
-        <v>124900</v>
+        <v>126300</v>
       </c>
       <c r="F41" s="3">
-        <v>56900</v>
+        <v>57500</v>
       </c>
       <c r="G41" s="3">
-        <v>70000</v>
+        <v>70800</v>
       </c>
       <c r="H41" s="3">
-        <v>112200</v>
+        <v>113500</v>
       </c>
       <c r="I41" s="3">
-        <v>133400</v>
+        <v>134900</v>
       </c>
       <c r="J41" s="3">
         <v>4900</v>
@@ -1731,7 +1731,7 @@
         <v>1400</v>
       </c>
       <c r="H43" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
@@ -1788,13 +1788,13 @@
         <v>2800</v>
       </c>
       <c r="E45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
         <v>2800</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>135600</v>
+        <v>137200</v>
       </c>
       <c r="E46" s="3">
-        <v>128200</v>
+        <v>129600</v>
       </c>
       <c r="F46" s="3">
-        <v>59800</v>
+        <v>60500</v>
       </c>
       <c r="G46" s="3">
-        <v>73400</v>
+        <v>74200</v>
       </c>
       <c r="H46" s="3">
-        <v>115700</v>
+        <v>117000</v>
       </c>
       <c r="I46" s="3">
-        <v>134700</v>
+        <v>136200</v>
       </c>
       <c r="J46" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>139000</v>
+        <v>140600</v>
       </c>
       <c r="E54" s="3">
-        <v>130400</v>
+        <v>131900</v>
       </c>
       <c r="F54" s="3">
-        <v>62800</v>
+        <v>63500</v>
       </c>
       <c r="G54" s="3">
-        <v>77500</v>
+        <v>78400</v>
       </c>
       <c r="H54" s="3">
-        <v>118400</v>
+        <v>119800</v>
       </c>
       <c r="I54" s="3">
-        <v>136300</v>
+        <v>137900</v>
       </c>
       <c r="J54" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -2151,13 +2151,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E59" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F59" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G59" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H59" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E60" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F60" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="G60" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H60" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I60" s="3">
         <v>3600</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="E61" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="F61" s="3">
         <v>6300</v>
       </c>
       <c r="G61" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H61" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I61" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J61" s="3">
         <v>1200</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27500</v>
+        <v>27800</v>
       </c>
       <c r="E66" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="F66" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="G66" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="H66" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="I66" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J66" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-250500</v>
+        <v>-253300</v>
       </c>
       <c r="E72" s="3">
-        <v>-183900</v>
+        <v>-185900</v>
       </c>
       <c r="F72" s="3">
-        <v>-141200</v>
+        <v>-142800</v>
       </c>
       <c r="G72" s="3">
-        <v>-89600</v>
+        <v>-90600</v>
       </c>
       <c r="H72" s="3">
-        <v>-43300</v>
+        <v>-43800</v>
       </c>
       <c r="I72" s="3">
-        <v>-18700</v>
+        <v>-18900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>111600</v>
+        <v>112800</v>
       </c>
       <c r="E76" s="3">
-        <v>109900</v>
+        <v>111100</v>
       </c>
       <c r="F76" s="3">
-        <v>46600</v>
+        <v>47100</v>
       </c>
       <c r="G76" s="3">
-        <v>62900</v>
+        <v>63600</v>
       </c>
       <c r="H76" s="3">
-        <v>106200</v>
+        <v>107400</v>
       </c>
       <c r="I76" s="3">
-        <v>129400</v>
+        <v>130900</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-66800</v>
+        <v>-67600</v>
       </c>
       <c r="E81" s="3">
-        <v>-43600</v>
+        <v>-44100</v>
       </c>
       <c r="F81" s="3">
-        <v>-51600</v>
+        <v>-52200</v>
       </c>
       <c r="G81" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="H81" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="I81" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="J81" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
@@ -2921,7 +2921,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-52000</v>
+        <v>-52600</v>
       </c>
       <c r="E89" s="3">
-        <v>-33700</v>
+        <v>-34100</v>
       </c>
       <c r="F89" s="3">
-        <v>-41300</v>
+        <v>-41800</v>
       </c>
       <c r="G89" s="3">
-        <v>-40500</v>
+        <v>-40900</v>
       </c>
       <c r="H89" s="3">
-        <v>-28700</v>
+        <v>-29000</v>
       </c>
       <c r="I89" s="3">
-        <v>-17100</v>
+        <v>-17300</v>
       </c>
       <c r="J89" s="3">
         <v>-2800</v>
@@ -3164,7 +3164,7 @@
         <v>-3000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I91" s="3">
         <v>-1300</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>59400</v>
+        <v>60000</v>
       </c>
       <c r="E100" s="3">
-        <v>102300</v>
+        <v>103400</v>
       </c>
       <c r="F100" s="3">
-        <v>31500</v>
+        <v>31900</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3446,10 +3446,10 @@
         <v>1900</v>
       </c>
       <c r="I100" s="3">
-        <v>141800</v>
+        <v>143400</v>
       </c>
       <c r="J100" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="K100" s="3">
         <v>700</v>
@@ -3476,10 +3476,10 @@
         <v>900</v>
       </c>
       <c r="H101" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I101" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E102" s="3">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="F102" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="G102" s="3">
-        <v>-42200</v>
+        <v>-42700</v>
       </c>
       <c r="H102" s="3">
-        <v>-21100</v>
+        <v>-21400</v>
       </c>
       <c r="I102" s="3">
-        <v>128500</v>
+        <v>129900</v>
       </c>
       <c r="J102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>PRQR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,94 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
-        <v>6900</v>
-      </c>
       <c r="F8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
-        <v>3900</v>
-      </c>
       <c r="I8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>53700</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="3">
-        <v>34400</v>
+        <v>52800</v>
       </c>
       <c r="F12" s="3">
-        <v>36300</v>
+        <v>33900</v>
       </c>
       <c r="G12" s="3">
-        <v>37100</v>
+        <v>35700</v>
       </c>
       <c r="H12" s="3">
-        <v>27600</v>
+        <v>36500</v>
       </c>
       <c r="I12" s="3">
-        <v>12100</v>
+        <v>27100</v>
       </c>
       <c r="J12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
         <v>1100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
-        <v>200</v>
-      </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>71000</v>
+        <v>61000</v>
       </c>
       <c r="E17" s="3">
-        <v>50300</v>
+        <v>69900</v>
       </c>
       <c r="F17" s="3">
-        <v>50200</v>
+        <v>49500</v>
       </c>
       <c r="G17" s="3">
-        <v>49500</v>
+        <v>49400</v>
       </c>
       <c r="H17" s="3">
-        <v>36200</v>
+        <v>48700</v>
       </c>
       <c r="I17" s="3">
-        <v>20100</v>
+        <v>35600</v>
       </c>
       <c r="J17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-68700</v>
+        <v>-49800</v>
       </c>
       <c r="E18" s="3">
-        <v>-43400</v>
+        <v>-67600</v>
       </c>
       <c r="F18" s="3">
-        <v>-48400</v>
+        <v>-42700</v>
       </c>
       <c r="G18" s="3">
-        <v>-47300</v>
+        <v>-47600</v>
       </c>
       <c r="H18" s="3">
-        <v>-32300</v>
+        <v>-46600</v>
       </c>
       <c r="I18" s="3">
-        <v>-19700</v>
+        <v>-31800</v>
       </c>
       <c r="J18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,149 +1083,162 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>7900</v>
-      </c>
       <c r="I20" s="3">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-64000</v>
+        <v>-49500</v>
       </c>
       <c r="E21" s="3">
-        <v>-42200</v>
+        <v>-62900</v>
       </c>
       <c r="F21" s="3">
-        <v>-50300</v>
+        <v>-41500</v>
       </c>
       <c r="G21" s="3">
-        <v>-44600</v>
+        <v>-49400</v>
       </c>
       <c r="H21" s="3">
-        <v>-23900</v>
+        <v>-43900</v>
       </c>
       <c r="I21" s="3">
-        <v>-14000</v>
+        <v>-23500</v>
       </c>
       <c r="J21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-67700</v>
+        <v>-54700</v>
       </c>
       <c r="E23" s="3">
-        <v>-44400</v>
+        <v>-66600</v>
       </c>
       <c r="F23" s="3">
-        <v>-52200</v>
+        <v>-43600</v>
       </c>
       <c r="G23" s="3">
-        <v>-46800</v>
+        <v>-51400</v>
       </c>
       <c r="H23" s="3">
-        <v>-24900</v>
+        <v>-46000</v>
       </c>
       <c r="I23" s="3">
-        <v>-14500</v>
+        <v>-24500</v>
       </c>
       <c r="J23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1203,21 +1248,24 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67900</v>
+        <v>-54800</v>
       </c>
       <c r="E26" s="3">
-        <v>-44400</v>
+        <v>-66800</v>
       </c>
       <c r="F26" s="3">
-        <v>-52200</v>
+        <v>-43600</v>
       </c>
       <c r="G26" s="3">
-        <v>-46800</v>
+        <v>-51400</v>
       </c>
       <c r="H26" s="3">
-        <v>-24900</v>
+        <v>-46000</v>
       </c>
       <c r="I26" s="3">
-        <v>-14500</v>
+        <v>-24500</v>
       </c>
       <c r="J26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-67600</v>
+        <v>-54800</v>
       </c>
       <c r="E27" s="3">
-        <v>-44100</v>
+        <v>-66400</v>
       </c>
       <c r="F27" s="3">
-        <v>-52200</v>
+        <v>-43400</v>
       </c>
       <c r="G27" s="3">
-        <v>-46800</v>
+        <v>-51300</v>
       </c>
       <c r="H27" s="3">
-        <v>-24900</v>
+        <v>-46000</v>
       </c>
       <c r="I27" s="3">
-        <v>-14500</v>
+        <v>-24500</v>
       </c>
       <c r="J27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I32" s="3">
-        <v>-5500</v>
+        <v>-7700</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67600</v>
+        <v>-54800</v>
       </c>
       <c r="E33" s="3">
-        <v>-44100</v>
+        <v>-66400</v>
       </c>
       <c r="F33" s="3">
-        <v>-52200</v>
+        <v>-43400</v>
       </c>
       <c r="G33" s="3">
-        <v>-46800</v>
+        <v>-51300</v>
       </c>
       <c r="H33" s="3">
-        <v>-24900</v>
+        <v>-46000</v>
       </c>
       <c r="I33" s="3">
-        <v>-14500</v>
+        <v>-24500</v>
       </c>
       <c r="J33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67600</v>
+        <v>-54800</v>
       </c>
       <c r="E35" s="3">
-        <v>-44100</v>
+        <v>-66400</v>
       </c>
       <c r="F35" s="3">
-        <v>-52200</v>
+        <v>-43400</v>
       </c>
       <c r="G35" s="3">
-        <v>-46800</v>
+        <v>-51300</v>
       </c>
       <c r="H35" s="3">
-        <v>-24900</v>
+        <v>-46000</v>
       </c>
       <c r="I35" s="3">
-        <v>-14500</v>
+        <v>-24500</v>
       </c>
       <c r="J35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133900</v>
+        <v>89200</v>
       </c>
       <c r="E41" s="3">
-        <v>126300</v>
+        <v>131700</v>
       </c>
       <c r="F41" s="3">
-        <v>57500</v>
+        <v>124200</v>
       </c>
       <c r="G41" s="3">
-        <v>70800</v>
+        <v>56600</v>
       </c>
       <c r="H41" s="3">
-        <v>113500</v>
+        <v>69600</v>
       </c>
       <c r="I41" s="3">
-        <v>134900</v>
+        <v>111600</v>
       </c>
       <c r="J41" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,9 +1801,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1722,32 +1814,35 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
-        <v>700</v>
-      </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,84 +1873,93 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
-        <v>2300</v>
-      </c>
       <c r="F45" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="H45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>137200</v>
+        <v>94100</v>
       </c>
       <c r="E46" s="3">
-        <v>129600</v>
+        <v>134900</v>
       </c>
       <c r="F46" s="3">
-        <v>60500</v>
+        <v>127500</v>
       </c>
       <c r="G46" s="3">
-        <v>74200</v>
+        <v>59500</v>
       </c>
       <c r="H46" s="3">
-        <v>117000</v>
+        <v>73000</v>
       </c>
       <c r="I46" s="3">
-        <v>136200</v>
+        <v>115000</v>
       </c>
       <c r="J46" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,81 +1975,90 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
-        <v>3000</v>
-      </c>
       <c r="G48" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="H48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,9 +2125,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>140600</v>
+        <v>116100</v>
       </c>
       <c r="E54" s="3">
-        <v>131900</v>
+        <v>138300</v>
       </c>
       <c r="F54" s="3">
-        <v>63500</v>
+        <v>129700</v>
       </c>
       <c r="G54" s="3">
-        <v>78400</v>
+        <v>62500</v>
       </c>
       <c r="H54" s="3">
-        <v>119800</v>
+        <v>77100</v>
       </c>
       <c r="I54" s="3">
-        <v>137900</v>
+        <v>117800</v>
       </c>
       <c r="J54" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,56 +2268,60 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>700</v>
-      </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
-        <v>1100</v>
-      </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2196,116 +2329,128 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11600</v>
+        <v>9000</v>
       </c>
       <c r="E59" s="3">
-        <v>9600</v>
+        <v>11400</v>
       </c>
       <c r="F59" s="3">
-        <v>7200</v>
+        <v>9400</v>
       </c>
       <c r="G59" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="H59" s="3">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
-        <v>2100</v>
+        <v>5400</v>
       </c>
       <c r="J59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13100</v>
+        <v>12100</v>
       </c>
       <c r="E60" s="3">
-        <v>9800</v>
+        <v>12900</v>
       </c>
       <c r="F60" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="G60" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H60" s="3">
-        <v>6600</v>
+        <v>7900</v>
       </c>
       <c r="I60" s="3">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="J60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15200</v>
+        <v>37500</v>
       </c>
       <c r="E61" s="3">
-        <v>11200</v>
+        <v>15000</v>
       </c>
       <c r="F61" s="3">
-        <v>6300</v>
+        <v>11000</v>
       </c>
       <c r="G61" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="H61" s="3">
-        <v>5800</v>
+        <v>6700</v>
       </c>
       <c r="I61" s="3">
-        <v>3400</v>
+        <v>5700</v>
       </c>
       <c r="J61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27800</v>
+        <v>49000</v>
       </c>
       <c r="E66" s="3">
-        <v>20700</v>
+        <v>27300</v>
       </c>
       <c r="F66" s="3">
-        <v>16400</v>
+        <v>20400</v>
       </c>
       <c r="G66" s="3">
-        <v>14800</v>
+        <v>16200</v>
       </c>
       <c r="H66" s="3">
-        <v>12300</v>
+        <v>14600</v>
       </c>
       <c r="I66" s="3">
-        <v>7000</v>
+        <v>12100</v>
       </c>
       <c r="J66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,32 +2785,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-253300</v>
+        <v>-303200</v>
       </c>
       <c r="E72" s="3">
-        <v>-185900</v>
+        <v>-249100</v>
       </c>
       <c r="F72" s="3">
-        <v>-142800</v>
+        <v>-182900</v>
       </c>
       <c r="G72" s="3">
-        <v>-90600</v>
+        <v>-140400</v>
       </c>
       <c r="H72" s="3">
-        <v>-43800</v>
+        <v>-89100</v>
       </c>
       <c r="I72" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-43100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-18600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>112800</v>
+        <v>67200</v>
       </c>
       <c r="E76" s="3">
-        <v>111100</v>
+        <v>111000</v>
       </c>
       <c r="F76" s="3">
-        <v>47100</v>
+        <v>109300</v>
       </c>
       <c r="G76" s="3">
-        <v>63600</v>
+        <v>46300</v>
       </c>
       <c r="H76" s="3">
-        <v>107400</v>
+        <v>62500</v>
       </c>
       <c r="I76" s="3">
-        <v>130900</v>
+        <v>105600</v>
       </c>
       <c r="J76" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67600</v>
+        <v>-54800</v>
       </c>
       <c r="E81" s="3">
-        <v>-44100</v>
+        <v>-66400</v>
       </c>
       <c r="F81" s="3">
-        <v>-52200</v>
+        <v>-43400</v>
       </c>
       <c r="G81" s="3">
-        <v>-46800</v>
+        <v>-51300</v>
       </c>
       <c r="H81" s="3">
-        <v>-24900</v>
+        <v>-46000</v>
       </c>
       <c r="I81" s="3">
-        <v>-14500</v>
+        <v>-24500</v>
       </c>
       <c r="J81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-52600</v>
+        <v>-55400</v>
       </c>
       <c r="E89" s="3">
-        <v>-34100</v>
+        <v>-51700</v>
       </c>
       <c r="F89" s="3">
-        <v>-41800</v>
+        <v>-33500</v>
       </c>
       <c r="G89" s="3">
-        <v>-40900</v>
+        <v>-41100</v>
       </c>
       <c r="H89" s="3">
-        <v>-29000</v>
+        <v>-40300</v>
       </c>
       <c r="I89" s="3">
-        <v>-17300</v>
+        <v>-28500</v>
       </c>
       <c r="J89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,65 +3666,71 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>60000</v>
+        <v>17100</v>
       </c>
       <c r="E100" s="3">
-        <v>103400</v>
+        <v>59100</v>
       </c>
       <c r="F100" s="3">
-        <v>31900</v>
+        <v>101700</v>
       </c>
       <c r="G100" s="3">
+        <v>31300</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
-        <v>143400</v>
-      </c>
       <c r="J100" s="3">
+        <v>141000</v>
+      </c>
+      <c r="K100" s="3">
         <v>7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>7300</v>
-      </c>
       <c r="I101" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3490,40 +3738,46 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7600</v>
+        <v>-42500</v>
       </c>
       <c r="E102" s="3">
-        <v>68800</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="3">
-        <v>-13300</v>
+        <v>67600</v>
       </c>
       <c r="G102" s="3">
-        <v>-42700</v>
+        <v>-13100</v>
       </c>
       <c r="H102" s="3">
-        <v>-21400</v>
+        <v>-42000</v>
       </c>
       <c r="I102" s="3">
-        <v>129900</v>
+        <v>-21000</v>
       </c>
       <c r="J102" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="E8" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F8" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
@@ -736,7 +736,7 @@
         <v>2200</v>
       </c>
       <c r="I8" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42800</v>
+        <v>44500</v>
       </c>
       <c r="E12" s="3">
-        <v>52800</v>
+        <v>55000</v>
       </c>
       <c r="F12" s="3">
-        <v>33900</v>
+        <v>35300</v>
       </c>
       <c r="G12" s="3">
-        <v>35700</v>
+        <v>37100</v>
       </c>
       <c r="H12" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="I12" s="3">
-        <v>27100</v>
+        <v>28200</v>
       </c>
       <c r="J12" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="K12" s="3">
         <v>6100</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
@@ -971,7 +971,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61000</v>
+        <v>63500</v>
       </c>
       <c r="E17" s="3">
-        <v>69900</v>
+        <v>72700</v>
       </c>
       <c r="F17" s="3">
-        <v>49500</v>
+        <v>51500</v>
       </c>
       <c r="G17" s="3">
-        <v>49400</v>
+        <v>51400</v>
       </c>
       <c r="H17" s="3">
-        <v>48700</v>
+        <v>50700</v>
       </c>
       <c r="I17" s="3">
-        <v>35600</v>
+        <v>37000</v>
       </c>
       <c r="J17" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="K17" s="3">
         <v>4000</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49800</v>
+        <v>-51900</v>
       </c>
       <c r="E18" s="3">
-        <v>-67600</v>
+        <v>-70400</v>
       </c>
       <c r="F18" s="3">
-        <v>-42700</v>
+        <v>-44500</v>
       </c>
       <c r="G18" s="3">
-        <v>-47600</v>
+        <v>-49600</v>
       </c>
       <c r="H18" s="3">
-        <v>-46600</v>
+        <v>-48500</v>
       </c>
       <c r="I18" s="3">
-        <v>-31800</v>
+        <v>-33100</v>
       </c>
       <c r="J18" s="3">
-        <v>-19400</v>
+        <v>-20200</v>
       </c>
       <c r="K18" s="3">
         <v>-3900</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
         <v>2300</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-49500</v>
+        <v>-51600</v>
       </c>
       <c r="E21" s="3">
-        <v>-62900</v>
+        <v>-65500</v>
       </c>
       <c r="F21" s="3">
-        <v>-41500</v>
+        <v>-43200</v>
       </c>
       <c r="G21" s="3">
-        <v>-49400</v>
+        <v>-51500</v>
       </c>
       <c r="H21" s="3">
-        <v>-43900</v>
+        <v>-45700</v>
       </c>
       <c r="I21" s="3">
-        <v>-23500</v>
+        <v>-24400</v>
       </c>
       <c r="J21" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="K21" s="3">
         <v>-3800</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
@@ -1174,7 +1174,7 @@
         <v>700</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54700</v>
+        <v>-56900</v>
       </c>
       <c r="E23" s="3">
-        <v>-66600</v>
+        <v>-69400</v>
       </c>
       <c r="F23" s="3">
-        <v>-43600</v>
+        <v>-45400</v>
       </c>
       <c r="G23" s="3">
-        <v>-51400</v>
+        <v>-53500</v>
       </c>
       <c r="H23" s="3">
-        <v>-46000</v>
+        <v>-47900</v>
       </c>
       <c r="I23" s="3">
-        <v>-24500</v>
+        <v>-25500</v>
       </c>
       <c r="J23" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="K23" s="3">
         <v>-3900</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54800</v>
+        <v>-57100</v>
       </c>
       <c r="E26" s="3">
-        <v>-66800</v>
+        <v>-69500</v>
       </c>
       <c r="F26" s="3">
-        <v>-43600</v>
+        <v>-45400</v>
       </c>
       <c r="G26" s="3">
-        <v>-51400</v>
+        <v>-53500</v>
       </c>
       <c r="H26" s="3">
-        <v>-46000</v>
+        <v>-47900</v>
       </c>
       <c r="I26" s="3">
-        <v>-24500</v>
+        <v>-25500</v>
       </c>
       <c r="J26" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="K26" s="3">
         <v>-3900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54800</v>
+        <v>-57000</v>
       </c>
       <c r="E27" s="3">
-        <v>-66400</v>
+        <v>-69200</v>
       </c>
       <c r="F27" s="3">
-        <v>-43400</v>
+        <v>-45200</v>
       </c>
       <c r="G27" s="3">
-        <v>-51300</v>
+        <v>-53500</v>
       </c>
       <c r="H27" s="3">
-        <v>-46000</v>
+        <v>-47900</v>
       </c>
       <c r="I27" s="3">
-        <v>-24500</v>
+        <v>-25500</v>
       </c>
       <c r="J27" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="K27" s="3">
         <v>-3900</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
         <v>-2300</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="J32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54800</v>
+        <v>-57000</v>
       </c>
       <c r="E33" s="3">
-        <v>-66400</v>
+        <v>-69200</v>
       </c>
       <c r="F33" s="3">
-        <v>-43400</v>
+        <v>-45200</v>
       </c>
       <c r="G33" s="3">
-        <v>-51300</v>
+        <v>-53500</v>
       </c>
       <c r="H33" s="3">
-        <v>-46000</v>
+        <v>-47900</v>
       </c>
       <c r="I33" s="3">
-        <v>-24500</v>
+        <v>-25500</v>
       </c>
       <c r="J33" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="K33" s="3">
         <v>-3900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54800</v>
+        <v>-57000</v>
       </c>
       <c r="E35" s="3">
-        <v>-66400</v>
+        <v>-69200</v>
       </c>
       <c r="F35" s="3">
-        <v>-43400</v>
+        <v>-45200</v>
       </c>
       <c r="G35" s="3">
-        <v>-51300</v>
+        <v>-53500</v>
       </c>
       <c r="H35" s="3">
-        <v>-46000</v>
+        <v>-47900</v>
       </c>
       <c r="I35" s="3">
-        <v>-24500</v>
+        <v>-25500</v>
       </c>
       <c r="J35" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="K35" s="3">
         <v>-3900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89200</v>
+        <v>92900</v>
       </c>
       <c r="E41" s="3">
-        <v>131700</v>
+        <v>137100</v>
       </c>
       <c r="F41" s="3">
-        <v>124200</v>
+        <v>129300</v>
       </c>
       <c r="G41" s="3">
-        <v>56600</v>
+        <v>58900</v>
       </c>
       <c r="H41" s="3">
-        <v>69600</v>
+        <v>72500</v>
       </c>
       <c r="I41" s="3">
-        <v>111600</v>
+        <v>116200</v>
       </c>
       <c r="J41" s="3">
-        <v>132600</v>
+        <v>138100</v>
       </c>
       <c r="K41" s="3">
         <v>4900</v>
@@ -1811,7 +1811,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
@@ -1826,7 +1826,7 @@
         <v>1400</v>
       </c>
       <c r="I43" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J45" s="3">
         <v>1000</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="E46" s="3">
-        <v>134900</v>
+        <v>140500</v>
       </c>
       <c r="F46" s="3">
-        <v>127500</v>
+        <v>132700</v>
       </c>
       <c r="G46" s="3">
-        <v>59500</v>
+        <v>61900</v>
       </c>
       <c r="H46" s="3">
-        <v>73000</v>
+        <v>76000</v>
       </c>
       <c r="I46" s="3">
-        <v>115000</v>
+        <v>119800</v>
       </c>
       <c r="J46" s="3">
-        <v>134000</v>
+        <v>139500</v>
       </c>
       <c r="K46" s="3">
         <v>5100</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21900</v>
+        <v>22800</v>
       </c>
       <c r="E48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H48" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116100</v>
+        <v>120900</v>
       </c>
       <c r="E54" s="3">
-        <v>138300</v>
+        <v>144000</v>
       </c>
       <c r="F54" s="3">
-        <v>129700</v>
+        <v>135000</v>
       </c>
       <c r="G54" s="3">
-        <v>62500</v>
+        <v>65100</v>
       </c>
       <c r="H54" s="3">
-        <v>77100</v>
+        <v>80300</v>
       </c>
       <c r="I54" s="3">
-        <v>117800</v>
+        <v>122600</v>
       </c>
       <c r="J54" s="3">
-        <v>135600</v>
+        <v>141200</v>
       </c>
       <c r="K54" s="3">
         <v>5400</v>
@@ -2284,13 +2284,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
@@ -2311,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="E59" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="F59" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="G59" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="I59" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="J59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="E60" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F60" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G60" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="H60" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="I60" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J60" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K60" s="3">
         <v>4300</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37500</v>
+        <v>39100</v>
       </c>
       <c r="E61" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="F61" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="G61" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="H61" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="I61" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="J61" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49000</v>
+        <v>51000</v>
       </c>
       <c r="E66" s="3">
-        <v>27300</v>
+        <v>28400</v>
       </c>
       <c r="F66" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="G66" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="H66" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="I66" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="J66" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="K66" s="3">
         <v>5500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-303200</v>
+        <v>-315700</v>
       </c>
       <c r="E72" s="3">
-        <v>-249100</v>
+        <v>-259400</v>
       </c>
       <c r="F72" s="3">
-        <v>-182900</v>
+        <v>-190400</v>
       </c>
       <c r="G72" s="3">
-        <v>-140400</v>
+        <v>-146200</v>
       </c>
       <c r="H72" s="3">
-        <v>-89100</v>
+        <v>-92800</v>
       </c>
       <c r="I72" s="3">
-        <v>-43100</v>
+        <v>-44900</v>
       </c>
       <c r="J72" s="3">
-        <v>-18600</v>
+        <v>-19400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67200</v>
+        <v>69900</v>
       </c>
       <c r="E76" s="3">
-        <v>111000</v>
+        <v>115600</v>
       </c>
       <c r="F76" s="3">
-        <v>109300</v>
+        <v>113800</v>
       </c>
       <c r="G76" s="3">
-        <v>46300</v>
+        <v>48200</v>
       </c>
       <c r="H76" s="3">
-        <v>62500</v>
+        <v>65100</v>
       </c>
       <c r="I76" s="3">
-        <v>105600</v>
+        <v>110000</v>
       </c>
       <c r="J76" s="3">
-        <v>128700</v>
+        <v>134000</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54800</v>
+        <v>-57000</v>
       </c>
       <c r="E81" s="3">
-        <v>-66400</v>
+        <v>-69200</v>
       </c>
       <c r="F81" s="3">
-        <v>-43400</v>
+        <v>-45200</v>
       </c>
       <c r="G81" s="3">
-        <v>-51300</v>
+        <v>-53500</v>
       </c>
       <c r="H81" s="3">
-        <v>-46000</v>
+        <v>-47900</v>
       </c>
       <c r="I81" s="3">
-        <v>-24500</v>
+        <v>-25500</v>
       </c>
       <c r="J81" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="K81" s="3">
         <v>-3900</v>
@@ -3104,10 +3104,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
@@ -3122,7 +3122,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-55400</v>
+        <v>-57600</v>
       </c>
       <c r="E89" s="3">
-        <v>-51700</v>
+        <v>-53900</v>
       </c>
       <c r="F89" s="3">
-        <v>-33500</v>
+        <v>-34900</v>
       </c>
       <c r="G89" s="3">
-        <v>-41100</v>
+        <v>-42800</v>
       </c>
       <c r="H89" s="3">
-        <v>-40300</v>
+        <v>-41900</v>
       </c>
       <c r="I89" s="3">
-        <v>-28500</v>
+        <v>-29700</v>
       </c>
       <c r="J89" s="3">
-        <v>-17000</v>
+        <v>-17700</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3384,13 +3384,13 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -3492,7 +3492,7 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I94" s="3">
         <v>-1600</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="E100" s="3">
-        <v>59100</v>
+        <v>61500</v>
       </c>
       <c r="F100" s="3">
-        <v>101700</v>
+        <v>105900</v>
       </c>
       <c r="G100" s="3">
-        <v>31300</v>
+        <v>32600</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J100" s="3">
-        <v>141000</v>
+        <v>146900</v>
       </c>
       <c r="K100" s="3">
         <v>7600</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="H101" s="3">
         <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="J101" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42500</v>
+        <v>-44200</v>
       </c>
       <c r="E102" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="F102" s="3">
-        <v>67600</v>
+        <v>70400</v>
       </c>
       <c r="G102" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="H102" s="3">
-        <v>-42000</v>
+        <v>-43700</v>
       </c>
       <c r="I102" s="3">
-        <v>-21000</v>
+        <v>-21900</v>
       </c>
       <c r="J102" s="3">
-        <v>127800</v>
+        <v>133000</v>
       </c>
       <c r="K102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="E8" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F8" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I8" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="E12" s="3">
-        <v>55000</v>
+        <v>52400</v>
       </c>
       <c r="F12" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="G12" s="3">
-        <v>37100</v>
+        <v>35400</v>
       </c>
       <c r="H12" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="I12" s="3">
-        <v>28200</v>
+        <v>26900</v>
       </c>
       <c r="J12" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="K12" s="3">
         <v>6100</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
@@ -971,7 +971,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63500</v>
+        <v>60500</v>
       </c>
       <c r="E17" s="3">
-        <v>72700</v>
+        <v>69300</v>
       </c>
       <c r="F17" s="3">
-        <v>51500</v>
+        <v>49100</v>
       </c>
       <c r="G17" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="H17" s="3">
-        <v>50700</v>
+        <v>48300</v>
       </c>
       <c r="I17" s="3">
-        <v>37000</v>
+        <v>35300</v>
       </c>
       <c r="J17" s="3">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="K17" s="3">
         <v>4000</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-51900</v>
+        <v>-49500</v>
       </c>
       <c r="E18" s="3">
-        <v>-70400</v>
+        <v>-67100</v>
       </c>
       <c r="F18" s="3">
-        <v>-44500</v>
+        <v>-42400</v>
       </c>
       <c r="G18" s="3">
-        <v>-49600</v>
+        <v>-47300</v>
       </c>
       <c r="H18" s="3">
-        <v>-48500</v>
+        <v>-46200</v>
       </c>
       <c r="I18" s="3">
-        <v>-33100</v>
+        <v>-31500</v>
       </c>
       <c r="J18" s="3">
-        <v>-20200</v>
+        <v>-19200</v>
       </c>
       <c r="K18" s="3">
         <v>-3900</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="J20" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-51600</v>
+        <v>-49100</v>
       </c>
       <c r="E21" s="3">
-        <v>-65500</v>
+        <v>-62400</v>
       </c>
       <c r="F21" s="3">
-        <v>-43200</v>
+        <v>-41200</v>
       </c>
       <c r="G21" s="3">
-        <v>-51500</v>
+        <v>-49000</v>
       </c>
       <c r="H21" s="3">
-        <v>-45700</v>
+        <v>-43600</v>
       </c>
       <c r="I21" s="3">
-        <v>-24400</v>
+        <v>-23300</v>
       </c>
       <c r="J21" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="K21" s="3">
         <v>-3800</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
       </c>
       <c r="H22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56900</v>
+        <v>-54300</v>
       </c>
       <c r="E23" s="3">
-        <v>-69400</v>
+        <v>-66100</v>
       </c>
       <c r="F23" s="3">
-        <v>-45400</v>
+        <v>-43300</v>
       </c>
       <c r="G23" s="3">
-        <v>-53500</v>
+        <v>-51000</v>
       </c>
       <c r="H23" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="I23" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="J23" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K23" s="3">
         <v>-3900</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57100</v>
+        <v>-54400</v>
       </c>
       <c r="E26" s="3">
-        <v>-69500</v>
+        <v>-66200</v>
       </c>
       <c r="F26" s="3">
-        <v>-45400</v>
+        <v>-43300</v>
       </c>
       <c r="G26" s="3">
-        <v>-53500</v>
+        <v>-51000</v>
       </c>
       <c r="H26" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="I26" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="J26" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K26" s="3">
         <v>-3900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-57000</v>
+        <v>-54400</v>
       </c>
       <c r="E27" s="3">
-        <v>-69200</v>
+        <v>-65900</v>
       </c>
       <c r="F27" s="3">
-        <v>-45200</v>
+        <v>-43100</v>
       </c>
       <c r="G27" s="3">
-        <v>-53500</v>
+        <v>-50900</v>
       </c>
       <c r="H27" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="I27" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="J27" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K27" s="3">
         <v>-3900</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="J32" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-57000</v>
+        <v>-54400</v>
       </c>
       <c r="E33" s="3">
-        <v>-69200</v>
+        <v>-65900</v>
       </c>
       <c r="F33" s="3">
-        <v>-45200</v>
+        <v>-43100</v>
       </c>
       <c r="G33" s="3">
-        <v>-53500</v>
+        <v>-50900</v>
       </c>
       <c r="H33" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="I33" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="J33" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K33" s="3">
         <v>-3900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-57000</v>
+        <v>-54400</v>
       </c>
       <c r="E35" s="3">
-        <v>-69200</v>
+        <v>-65900</v>
       </c>
       <c r="F35" s="3">
-        <v>-45200</v>
+        <v>-43100</v>
       </c>
       <c r="G35" s="3">
-        <v>-53500</v>
+        <v>-50900</v>
       </c>
       <c r="H35" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="I35" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="J35" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K35" s="3">
         <v>-3900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92900</v>
+        <v>88500</v>
       </c>
       <c r="E41" s="3">
-        <v>137100</v>
+        <v>130700</v>
       </c>
       <c r="F41" s="3">
-        <v>129300</v>
+        <v>123300</v>
       </c>
       <c r="G41" s="3">
-        <v>58900</v>
+        <v>56200</v>
       </c>
       <c r="H41" s="3">
-        <v>72500</v>
+        <v>69100</v>
       </c>
       <c r="I41" s="3">
-        <v>116200</v>
+        <v>110700</v>
       </c>
       <c r="J41" s="3">
-        <v>138100</v>
+        <v>131600</v>
       </c>
       <c r="K41" s="3">
         <v>4900</v>
@@ -1811,13 +1811,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -1826,7 +1826,7 @@
         <v>1400</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J45" s="3">
         <v>1000</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="E46" s="3">
-        <v>140500</v>
+        <v>133900</v>
       </c>
       <c r="F46" s="3">
-        <v>132700</v>
+        <v>126500</v>
       </c>
       <c r="G46" s="3">
-        <v>61900</v>
+        <v>59000</v>
       </c>
       <c r="H46" s="3">
-        <v>76000</v>
+        <v>72400</v>
       </c>
       <c r="I46" s="3">
-        <v>119800</v>
+        <v>114100</v>
       </c>
       <c r="J46" s="3">
-        <v>139500</v>
+        <v>133000</v>
       </c>
       <c r="K46" s="3">
         <v>5100</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="E48" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G48" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H48" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>120900</v>
+        <v>115300</v>
       </c>
       <c r="E54" s="3">
-        <v>144000</v>
+        <v>137200</v>
       </c>
       <c r="F54" s="3">
-        <v>135000</v>
+        <v>128700</v>
       </c>
       <c r="G54" s="3">
-        <v>65100</v>
+        <v>62000</v>
       </c>
       <c r="H54" s="3">
-        <v>80300</v>
+        <v>76500</v>
       </c>
       <c r="I54" s="3">
-        <v>122600</v>
+        <v>116900</v>
       </c>
       <c r="J54" s="3">
-        <v>141200</v>
+        <v>134500</v>
       </c>
       <c r="K54" s="3">
         <v>5400</v>
@@ -2284,13 +2284,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
@@ -2311,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9800</v>
-      </c>
       <c r="G59" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="H59" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="E60" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="F60" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="G60" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="H60" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="I60" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="J60" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K60" s="3">
         <v>4300</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39100</v>
+        <v>37200</v>
       </c>
       <c r="E61" s="3">
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="G61" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H61" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="I61" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J61" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="E66" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="F66" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="G66" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="H66" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="I66" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="J66" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="K66" s="3">
         <v>5500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-315700</v>
+        <v>-300900</v>
       </c>
       <c r="E72" s="3">
-        <v>-259400</v>
+        <v>-247200</v>
       </c>
       <c r="F72" s="3">
-        <v>-190400</v>
+        <v>-181500</v>
       </c>
       <c r="G72" s="3">
-        <v>-146200</v>
+        <v>-139400</v>
       </c>
       <c r="H72" s="3">
-        <v>-92800</v>
+        <v>-88400</v>
       </c>
       <c r="I72" s="3">
-        <v>-44900</v>
+        <v>-42800</v>
       </c>
       <c r="J72" s="3">
-        <v>-19400</v>
+        <v>-18400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69900</v>
+        <v>66600</v>
       </c>
       <c r="E76" s="3">
-        <v>115600</v>
+        <v>110100</v>
       </c>
       <c r="F76" s="3">
-        <v>113800</v>
+        <v>108500</v>
       </c>
       <c r="G76" s="3">
-        <v>48200</v>
+        <v>46000</v>
       </c>
       <c r="H76" s="3">
-        <v>65100</v>
+        <v>62000</v>
       </c>
       <c r="I76" s="3">
-        <v>110000</v>
+        <v>104800</v>
       </c>
       <c r="J76" s="3">
-        <v>134000</v>
+        <v>127700</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-57000</v>
+        <v>-54400</v>
       </c>
       <c r="E81" s="3">
-        <v>-69200</v>
+        <v>-65900</v>
       </c>
       <c r="F81" s="3">
-        <v>-45200</v>
+        <v>-43100</v>
       </c>
       <c r="G81" s="3">
-        <v>-53500</v>
+        <v>-50900</v>
       </c>
       <c r="H81" s="3">
-        <v>-47900</v>
+        <v>-45600</v>
       </c>
       <c r="I81" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="J81" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K81" s="3">
         <v>-3900</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
@@ -3122,7 +3122,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-57600</v>
+        <v>-54900</v>
       </c>
       <c r="E89" s="3">
-        <v>-53900</v>
+        <v>-51300</v>
       </c>
       <c r="F89" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="G89" s="3">
-        <v>-42800</v>
+        <v>-40800</v>
       </c>
       <c r="H89" s="3">
-        <v>-41900</v>
+        <v>-39900</v>
       </c>
       <c r="I89" s="3">
-        <v>-29700</v>
+        <v>-28300</v>
       </c>
       <c r="J89" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3384,13 +3384,13 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -3492,13 +3492,13 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="E100" s="3">
-        <v>61500</v>
+        <v>58600</v>
       </c>
       <c r="F100" s="3">
-        <v>105900</v>
+        <v>100900</v>
       </c>
       <c r="G100" s="3">
-        <v>32600</v>
+        <v>31100</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J100" s="3">
-        <v>146900</v>
+        <v>140000</v>
       </c>
       <c r="K100" s="3">
         <v>7600</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="E101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
         <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="J101" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-44200</v>
+        <v>-42200</v>
       </c>
       <c r="E102" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="F102" s="3">
-        <v>70400</v>
+        <v>67100</v>
       </c>
       <c r="G102" s="3">
-        <v>-13600</v>
+        <v>-13000</v>
       </c>
       <c r="H102" s="3">
-        <v>-43700</v>
+        <v>-41600</v>
       </c>
       <c r="I102" s="3">
-        <v>-21900</v>
+        <v>-20900</v>
       </c>
       <c r="J102" s="3">
-        <v>133000</v>
+        <v>126800</v>
       </c>
       <c r="K102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="E8" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G8" s="3">
         <v>1700</v>
@@ -736,7 +736,7 @@
         <v>2100</v>
       </c>
       <c r="I8" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="E12" s="3">
-        <v>52400</v>
+        <v>50700</v>
       </c>
       <c r="F12" s="3">
-        <v>33600</v>
+        <v>32500</v>
       </c>
       <c r="G12" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="H12" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="I12" s="3">
-        <v>26900</v>
+        <v>26000</v>
       </c>
       <c r="J12" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="K12" s="3">
         <v>6100</v>
@@ -956,16 +956,16 @@
         <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
         <v>1100</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60500</v>
+        <v>58500</v>
       </c>
       <c r="E17" s="3">
-        <v>69300</v>
+        <v>67000</v>
       </c>
       <c r="F17" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="G17" s="3">
-        <v>49000</v>
+        <v>47400</v>
       </c>
       <c r="H17" s="3">
-        <v>48300</v>
+        <v>46700</v>
       </c>
       <c r="I17" s="3">
-        <v>35300</v>
+        <v>34100</v>
       </c>
       <c r="J17" s="3">
-        <v>19600</v>
+        <v>18900</v>
       </c>
       <c r="K17" s="3">
         <v>4000</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49500</v>
+        <v>-47800</v>
       </c>
       <c r="E18" s="3">
-        <v>-67100</v>
+        <v>-64900</v>
       </c>
       <c r="F18" s="3">
-        <v>-42400</v>
+        <v>-41000</v>
       </c>
       <c r="G18" s="3">
-        <v>-47300</v>
+        <v>-45700</v>
       </c>
       <c r="H18" s="3">
-        <v>-46200</v>
+        <v>-44700</v>
       </c>
       <c r="I18" s="3">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="J18" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="K18" s="3">
         <v>-3900</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J20" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-49100</v>
+        <v>-47500</v>
       </c>
       <c r="E21" s="3">
-        <v>-62400</v>
+        <v>-60400</v>
       </c>
       <c r="F21" s="3">
-        <v>-41200</v>
+        <v>-39800</v>
       </c>
       <c r="G21" s="3">
-        <v>-49000</v>
+        <v>-47400</v>
       </c>
       <c r="H21" s="3">
-        <v>-43600</v>
+        <v>-42100</v>
       </c>
       <c r="I21" s="3">
-        <v>-23300</v>
+        <v>-22500</v>
       </c>
       <c r="J21" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="K21" s="3">
         <v>-3800</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
@@ -1177,7 +1177,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54300</v>
+        <v>-52500</v>
       </c>
       <c r="E23" s="3">
-        <v>-66100</v>
+        <v>-63900</v>
       </c>
       <c r="F23" s="3">
-        <v>-43300</v>
+        <v>-41900</v>
       </c>
       <c r="G23" s="3">
-        <v>-51000</v>
+        <v>-49300</v>
       </c>
       <c r="H23" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="I23" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J23" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K23" s="3">
         <v>-3900</v>
@@ -1237,7 +1237,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54400</v>
+        <v>-52600</v>
       </c>
       <c r="E26" s="3">
-        <v>-66200</v>
+        <v>-64100</v>
       </c>
       <c r="F26" s="3">
-        <v>-43300</v>
+        <v>-41900</v>
       </c>
       <c r="G26" s="3">
-        <v>-51000</v>
+        <v>-49300</v>
       </c>
       <c r="H26" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="I26" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J26" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K26" s="3">
         <v>-3900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54400</v>
+        <v>-52600</v>
       </c>
       <c r="E27" s="3">
-        <v>-65900</v>
+        <v>-63800</v>
       </c>
       <c r="F27" s="3">
-        <v>-43100</v>
+        <v>-41700</v>
       </c>
       <c r="G27" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="H27" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="I27" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J27" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K27" s="3">
         <v>-3900</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="J32" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54400</v>
+        <v>-52600</v>
       </c>
       <c r="E33" s="3">
-        <v>-65900</v>
+        <v>-63800</v>
       </c>
       <c r="F33" s="3">
-        <v>-43100</v>
+        <v>-41700</v>
       </c>
       <c r="G33" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="H33" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="I33" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J33" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K33" s="3">
         <v>-3900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54400</v>
+        <v>-52600</v>
       </c>
       <c r="E35" s="3">
-        <v>-65900</v>
+        <v>-63800</v>
       </c>
       <c r="F35" s="3">
-        <v>-43100</v>
+        <v>-41700</v>
       </c>
       <c r="G35" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="H35" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="I35" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J35" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K35" s="3">
         <v>-3900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>88500</v>
+        <v>85600</v>
       </c>
       <c r="E41" s="3">
-        <v>130700</v>
+        <v>126400</v>
       </c>
       <c r="F41" s="3">
-        <v>123300</v>
+        <v>119200</v>
       </c>
       <c r="G41" s="3">
-        <v>56200</v>
+        <v>54300</v>
       </c>
       <c r="H41" s="3">
-        <v>69100</v>
+        <v>66800</v>
       </c>
       <c r="I41" s="3">
-        <v>110700</v>
+        <v>107100</v>
       </c>
       <c r="J41" s="3">
-        <v>131600</v>
+        <v>127300</v>
       </c>
       <c r="K41" s="3">
         <v>4900</v>
@@ -1823,7 +1823,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>93400</v>
+        <v>90400</v>
       </c>
       <c r="E46" s="3">
-        <v>133900</v>
+        <v>129500</v>
       </c>
       <c r="F46" s="3">
-        <v>126500</v>
+        <v>122400</v>
       </c>
       <c r="G46" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="H46" s="3">
-        <v>72400</v>
+        <v>70000</v>
       </c>
       <c r="I46" s="3">
-        <v>114100</v>
+        <v>110400</v>
       </c>
       <c r="J46" s="3">
-        <v>133000</v>
+        <v>128600</v>
       </c>
       <c r="K46" s="3">
         <v>5100</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="E48" s="3">
         <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115300</v>
+        <v>111500</v>
       </c>
       <c r="E54" s="3">
-        <v>137200</v>
+        <v>132700</v>
       </c>
       <c r="F54" s="3">
-        <v>128700</v>
+        <v>124500</v>
       </c>
       <c r="G54" s="3">
-        <v>62000</v>
+        <v>60000</v>
       </c>
       <c r="H54" s="3">
-        <v>76500</v>
+        <v>74000</v>
       </c>
       <c r="I54" s="3">
-        <v>116900</v>
+        <v>113000</v>
       </c>
       <c r="J54" s="3">
-        <v>134500</v>
+        <v>130100</v>
       </c>
       <c r="K54" s="3">
         <v>5400</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
@@ -2293,7 +2293,7 @@
         <v>1000</v>
       </c>
       <c r="J57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
@@ -2311,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E59" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F59" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="G59" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="I59" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J59" s="3">
         <v>2000</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="E60" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="F60" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="G60" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="H60" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="I60" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="J60" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K60" s="3">
         <v>4300</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="E61" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="F61" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="G61" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H61" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I61" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J61" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48600</v>
+        <v>47000</v>
       </c>
       <c r="E66" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="F66" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="G66" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="H66" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="I66" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="J66" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K66" s="3">
         <v>5500</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-300900</v>
+        <v>-291000</v>
       </c>
       <c r="E72" s="3">
-        <v>-247200</v>
+        <v>-239100</v>
       </c>
       <c r="F72" s="3">
-        <v>-181500</v>
+        <v>-175500</v>
       </c>
       <c r="G72" s="3">
-        <v>-139400</v>
+        <v>-134800</v>
       </c>
       <c r="H72" s="3">
-        <v>-88400</v>
+        <v>-85500</v>
       </c>
       <c r="I72" s="3">
-        <v>-42800</v>
+        <v>-41400</v>
       </c>
       <c r="J72" s="3">
-        <v>-18400</v>
+        <v>-17800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66600</v>
+        <v>64500</v>
       </c>
       <c r="E76" s="3">
-        <v>110100</v>
+        <v>106500</v>
       </c>
       <c r="F76" s="3">
-        <v>108500</v>
+        <v>104900</v>
       </c>
       <c r="G76" s="3">
-        <v>46000</v>
+        <v>44400</v>
       </c>
       <c r="H76" s="3">
-        <v>62000</v>
+        <v>60000</v>
       </c>
       <c r="I76" s="3">
-        <v>104800</v>
+        <v>101400</v>
       </c>
       <c r="J76" s="3">
-        <v>127700</v>
+        <v>123500</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54400</v>
+        <v>-52600</v>
       </c>
       <c r="E81" s="3">
-        <v>-65900</v>
+        <v>-63800</v>
       </c>
       <c r="F81" s="3">
-        <v>-43100</v>
+        <v>-41700</v>
       </c>
       <c r="G81" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="H81" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="I81" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="J81" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K81" s="3">
         <v>-3900</v>
@@ -3107,19 +3107,19 @@
         <v>2700</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="E89" s="3">
-        <v>-51300</v>
+        <v>-49600</v>
       </c>
       <c r="F89" s="3">
-        <v>-33300</v>
+        <v>-32200</v>
       </c>
       <c r="G89" s="3">
-        <v>-40800</v>
+        <v>-39500</v>
       </c>
       <c r="H89" s="3">
-        <v>-39900</v>
+        <v>-38600</v>
       </c>
       <c r="I89" s="3">
-        <v>-28300</v>
+        <v>-27400</v>
       </c>
       <c r="J89" s="3">
-        <v>-16900</v>
+        <v>-16300</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3372,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-700</v>
@@ -3384,7 +3384,7 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
         <v>-1500</v>
@@ -3480,7 +3480,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
         <v>-700</v>
@@ -3492,7 +3492,7 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I94" s="3">
         <v>-1500</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="E100" s="3">
-        <v>58600</v>
+        <v>56700</v>
       </c>
       <c r="F100" s="3">
-        <v>100900</v>
+        <v>97600</v>
       </c>
       <c r="G100" s="3">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J100" s="3">
-        <v>140000</v>
+        <v>135400</v>
       </c>
       <c r="K100" s="3">
         <v>7600</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -3721,16 +3721,16 @@
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J101" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42200</v>
+        <v>-40800</v>
       </c>
       <c r="E102" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="F102" s="3">
-        <v>67100</v>
+        <v>64900</v>
       </c>
       <c r="G102" s="3">
-        <v>-13000</v>
+        <v>-12500</v>
       </c>
       <c r="H102" s="3">
-        <v>-41600</v>
+        <v>-40300</v>
       </c>
       <c r="I102" s="3">
-        <v>-20900</v>
+        <v>-20200</v>
       </c>
       <c r="J102" s="3">
-        <v>126800</v>
+        <v>122600</v>
       </c>
       <c r="K102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>PRQR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10700</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
-        <v>2200</v>
+        <v>10300</v>
       </c>
       <c r="F8" s="3">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="G8" s="3">
-        <v>1700</v>
+        <v>6300</v>
       </c>
       <c r="H8" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="I8" s="3">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,9 +792,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41000</v>
+        <v>46100</v>
       </c>
       <c r="E12" s="3">
-        <v>50700</v>
+        <v>39700</v>
       </c>
       <c r="F12" s="3">
-        <v>32500</v>
+        <v>49000</v>
       </c>
       <c r="G12" s="3">
-        <v>34200</v>
+        <v>31400</v>
       </c>
       <c r="H12" s="3">
-        <v>35000</v>
+        <v>33100</v>
       </c>
       <c r="I12" s="3">
-        <v>26000</v>
+        <v>33800</v>
       </c>
       <c r="J12" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,45 +965,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>2700</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="F15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58500</v>
+        <v>65000</v>
       </c>
       <c r="E17" s="3">
-        <v>67000</v>
+        <v>56500</v>
       </c>
       <c r="F17" s="3">
-        <v>47500</v>
+        <v>64800</v>
       </c>
       <c r="G17" s="3">
-        <v>47400</v>
+        <v>45900</v>
       </c>
       <c r="H17" s="3">
-        <v>46700</v>
+        <v>45800</v>
       </c>
       <c r="I17" s="3">
-        <v>34100</v>
+        <v>45200</v>
       </c>
       <c r="J17" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K17" s="3">
         <v>18900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47800</v>
+        <v>-62400</v>
       </c>
       <c r="E18" s="3">
-        <v>-64900</v>
+        <v>-46200</v>
       </c>
       <c r="F18" s="3">
-        <v>-41000</v>
+        <v>-62700</v>
       </c>
       <c r="G18" s="3">
-        <v>-45700</v>
+        <v>-39600</v>
       </c>
       <c r="H18" s="3">
-        <v>-44700</v>
+        <v>-44200</v>
       </c>
       <c r="I18" s="3">
-        <v>-30500</v>
+        <v>-43200</v>
       </c>
       <c r="J18" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,152 +1116,165 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
-        <v>2200</v>
+        <v>-2300</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>7400</v>
-      </c>
       <c r="J20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-47500</v>
+        <v>-64600</v>
       </c>
       <c r="E21" s="3">
-        <v>-60400</v>
+        <v>-45900</v>
       </c>
       <c r="F21" s="3">
-        <v>-39800</v>
+        <v>-58300</v>
       </c>
       <c r="G21" s="3">
-        <v>-47400</v>
+        <v>-38500</v>
       </c>
       <c r="H21" s="3">
-        <v>-42100</v>
+        <v>-45800</v>
       </c>
       <c r="I21" s="3">
-        <v>-22500</v>
+        <v>-40700</v>
       </c>
       <c r="J21" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>2300</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-52500</v>
+        <v>-67200</v>
       </c>
       <c r="E23" s="3">
-        <v>-63900</v>
+        <v>-50700</v>
       </c>
       <c r="F23" s="3">
-        <v>-41900</v>
+        <v>-61800</v>
       </c>
       <c r="G23" s="3">
-        <v>-49300</v>
+        <v>-40500</v>
       </c>
       <c r="H23" s="3">
-        <v>-44200</v>
+        <v>-47600</v>
       </c>
       <c r="I23" s="3">
-        <v>-23500</v>
+        <v>-42700</v>
       </c>
       <c r="J23" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1240,7 +1285,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1251,21 +1296,24 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52600</v>
+        <v>-67300</v>
       </c>
       <c r="E26" s="3">
-        <v>-64100</v>
+        <v>-50900</v>
       </c>
       <c r="F26" s="3">
-        <v>-41900</v>
+        <v>-61900</v>
       </c>
       <c r="G26" s="3">
-        <v>-49300</v>
+        <v>-40500</v>
       </c>
       <c r="H26" s="3">
-        <v>-44200</v>
+        <v>-47600</v>
       </c>
       <c r="I26" s="3">
-        <v>-23500</v>
+        <v>-42700</v>
       </c>
       <c r="J26" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52600</v>
+        <v>-67200</v>
       </c>
       <c r="E27" s="3">
-        <v>-63800</v>
+        <v>-50800</v>
       </c>
       <c r="F27" s="3">
-        <v>-41700</v>
+        <v>-61600</v>
       </c>
       <c r="G27" s="3">
-        <v>-49300</v>
+        <v>-40200</v>
       </c>
       <c r="H27" s="3">
-        <v>-44200</v>
+        <v>-47600</v>
       </c>
       <c r="I27" s="3">
-        <v>-23500</v>
+        <v>-42700</v>
       </c>
       <c r="J27" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2200</v>
+        <v>2300</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7400</v>
-      </c>
       <c r="J32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52600</v>
+        <v>-67200</v>
       </c>
       <c r="E33" s="3">
-        <v>-63800</v>
+        <v>-50800</v>
       </c>
       <c r="F33" s="3">
-        <v>-41700</v>
+        <v>-61600</v>
       </c>
       <c r="G33" s="3">
-        <v>-49300</v>
+        <v>-40200</v>
       </c>
       <c r="H33" s="3">
-        <v>-44200</v>
+        <v>-47600</v>
       </c>
       <c r="I33" s="3">
-        <v>-23500</v>
+        <v>-42700</v>
       </c>
       <c r="J33" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52600</v>
+        <v>-67200</v>
       </c>
       <c r="E35" s="3">
-        <v>-63800</v>
+        <v>-50800</v>
       </c>
       <c r="F35" s="3">
-        <v>-41700</v>
+        <v>-61600</v>
       </c>
       <c r="G35" s="3">
-        <v>-49300</v>
+        <v>-40200</v>
       </c>
       <c r="H35" s="3">
-        <v>-44200</v>
+        <v>-47600</v>
       </c>
       <c r="I35" s="3">
-        <v>-23500</v>
+        <v>-42700</v>
       </c>
       <c r="J35" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85600</v>
+        <v>204600</v>
       </c>
       <c r="E41" s="3">
-        <v>126400</v>
+        <v>82700</v>
       </c>
       <c r="F41" s="3">
-        <v>119200</v>
+        <v>122100</v>
       </c>
       <c r="G41" s="3">
-        <v>54300</v>
+        <v>115200</v>
       </c>
       <c r="H41" s="3">
-        <v>66800</v>
+        <v>52500</v>
       </c>
       <c r="I41" s="3">
-        <v>107100</v>
+        <v>64600</v>
       </c>
       <c r="J41" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K41" s="3">
         <v>127300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>400</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1886,83 +1984,89 @@
         <v>4300</v>
       </c>
       <c r="E45" s="3">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="F45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
-        <v>2700</v>
-      </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>90400</v>
+        <v>208900</v>
       </c>
       <c r="E46" s="3">
-        <v>129500</v>
+        <v>87300</v>
       </c>
       <c r="F46" s="3">
-        <v>122400</v>
+        <v>125100</v>
       </c>
       <c r="G46" s="3">
-        <v>57100</v>
+        <v>118200</v>
       </c>
       <c r="H46" s="3">
-        <v>70000</v>
+        <v>55200</v>
       </c>
       <c r="I46" s="3">
-        <v>110400</v>
+        <v>67700</v>
       </c>
       <c r="J46" s="3">
+        <v>106700</v>
+      </c>
+      <c r="K46" s="3">
         <v>128600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,51 +2082,57 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21000</v>
+        <v>19100</v>
       </c>
       <c r="E48" s="3">
-        <v>2800</v>
+        <v>20300</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
-        <v>3900</v>
+        <v>2700</v>
       </c>
       <c r="I48" s="3">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="J48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2032,33 +2142,36 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111500</v>
+        <v>228600</v>
       </c>
       <c r="E54" s="3">
-        <v>132700</v>
+        <v>107700</v>
       </c>
       <c r="F54" s="3">
-        <v>124500</v>
+        <v>128200</v>
       </c>
       <c r="G54" s="3">
-        <v>60000</v>
+        <v>120300</v>
       </c>
       <c r="H54" s="3">
-        <v>74000</v>
+        <v>57900</v>
       </c>
       <c r="I54" s="3">
-        <v>113000</v>
+        <v>71500</v>
       </c>
       <c r="J54" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K54" s="3">
         <v>130100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2278,52 +2408,55 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>6900</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2332,148 +2465,160 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8700</v>
+        <v>23000</v>
       </c>
       <c r="E59" s="3">
-        <v>10900</v>
+        <v>8400</v>
       </c>
       <c r="F59" s="3">
-        <v>9100</v>
+        <v>10600</v>
       </c>
       <c r="G59" s="3">
-        <v>6800</v>
+        <v>8800</v>
       </c>
       <c r="H59" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="I59" s="3">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="J59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11600</v>
+        <v>30100</v>
       </c>
       <c r="E60" s="3">
-        <v>12400</v>
+        <v>11200</v>
       </c>
       <c r="F60" s="3">
-        <v>9200</v>
+        <v>12000</v>
       </c>
       <c r="G60" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="H60" s="3">
-        <v>7600</v>
+        <v>9300</v>
       </c>
       <c r="I60" s="3">
-        <v>6200</v>
+        <v>7300</v>
       </c>
       <c r="J60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36000</v>
+        <v>59000</v>
       </c>
       <c r="E61" s="3">
-        <v>14300</v>
+        <v>34800</v>
       </c>
       <c r="F61" s="3">
-        <v>10600</v>
+        <v>13900</v>
       </c>
       <c r="G61" s="3">
-        <v>6000</v>
+        <v>10200</v>
       </c>
       <c r="H61" s="3">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="I61" s="3">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="J61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>16000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47000</v>
+        <v>104500</v>
       </c>
       <c r="E66" s="3">
-        <v>26200</v>
+        <v>45400</v>
       </c>
       <c r="F66" s="3">
-        <v>19600</v>
+        <v>25300</v>
       </c>
       <c r="G66" s="3">
-        <v>15500</v>
+        <v>18900</v>
       </c>
       <c r="H66" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="I66" s="3">
-        <v>11600</v>
+        <v>13500</v>
       </c>
       <c r="J66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-291000</v>
+        <v>-345100</v>
       </c>
       <c r="E72" s="3">
-        <v>-239100</v>
+        <v>-281200</v>
       </c>
       <c r="F72" s="3">
-        <v>-175500</v>
+        <v>-231000</v>
       </c>
       <c r="G72" s="3">
-        <v>-134800</v>
+        <v>-169600</v>
       </c>
       <c r="H72" s="3">
-        <v>-85500</v>
+        <v>-130200</v>
       </c>
       <c r="I72" s="3">
-        <v>-41400</v>
+        <v>-82600</v>
       </c>
       <c r="J72" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64500</v>
+        <v>124200</v>
       </c>
       <c r="E76" s="3">
-        <v>106500</v>
+        <v>62300</v>
       </c>
       <c r="F76" s="3">
-        <v>104900</v>
+        <v>102900</v>
       </c>
       <c r="G76" s="3">
-        <v>44400</v>
+        <v>101400</v>
       </c>
       <c r="H76" s="3">
-        <v>60000</v>
+        <v>42900</v>
       </c>
       <c r="I76" s="3">
-        <v>101400</v>
+        <v>58000</v>
       </c>
       <c r="J76" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K76" s="3">
         <v>123500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52600</v>
+        <v>-67200</v>
       </c>
       <c r="E81" s="3">
-        <v>-63800</v>
+        <v>-50800</v>
       </c>
       <c r="F81" s="3">
-        <v>-41700</v>
+        <v>-61600</v>
       </c>
       <c r="G81" s="3">
-        <v>-49300</v>
+        <v>-40200</v>
       </c>
       <c r="H81" s="3">
-        <v>-44200</v>
+        <v>-47600</v>
       </c>
       <c r="I81" s="3">
-        <v>-23500</v>
+        <v>-42700</v>
       </c>
       <c r="J81" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="F83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-53100</v>
+        <v>-28400</v>
       </c>
       <c r="E89" s="3">
-        <v>-49600</v>
+        <v>-51300</v>
       </c>
       <c r="F89" s="3">
-        <v>-32200</v>
+        <v>-48000</v>
       </c>
       <c r="G89" s="3">
-        <v>-39500</v>
+        <v>-31100</v>
       </c>
       <c r="H89" s="3">
-        <v>-38600</v>
+        <v>-38100</v>
       </c>
       <c r="I89" s="3">
-        <v>-27400</v>
+        <v>-37300</v>
       </c>
       <c r="J89" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-700</v>
-      </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2900</v>
-      </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-2800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-700</v>
-      </c>
       <c r="F94" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-2900</v>
-      </c>
       <c r="I94" s="3">
-        <v>-1500</v>
+        <v>-2800</v>
       </c>
       <c r="J94" s="3">
         <v>-1400</v>
       </c>
       <c r="K94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16400</v>
+        <v>149300</v>
       </c>
       <c r="E100" s="3">
-        <v>56700</v>
+        <v>15800</v>
       </c>
       <c r="F100" s="3">
-        <v>97600</v>
+        <v>54800</v>
       </c>
       <c r="G100" s="3">
-        <v>30100</v>
+        <v>94300</v>
       </c>
       <c r="H100" s="3">
+        <v>29100</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>135400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
-        <v>6800</v>
-      </c>
       <c r="J101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40800</v>
+        <v>121800</v>
       </c>
       <c r="E102" s="3">
-        <v>7200</v>
+        <v>-39400</v>
       </c>
       <c r="F102" s="3">
-        <v>64900</v>
+        <v>6900</v>
       </c>
       <c r="G102" s="3">
-        <v>-12500</v>
+        <v>62700</v>
       </c>
       <c r="H102" s="3">
-        <v>-40300</v>
+        <v>-12100</v>
       </c>
       <c r="I102" s="3">
-        <v>-20200</v>
+        <v>-38900</v>
       </c>
       <c r="J102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K102" s="3">
         <v>122600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>PRQR</t>
   </si>
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="F8" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H8" s="3">
         <v>1600</v>
       </c>
       <c r="I8" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J8" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>46100</v>
+        <v>42100</v>
       </c>
       <c r="E12" s="3">
-        <v>39700</v>
+        <v>37700</v>
       </c>
       <c r="F12" s="3">
-        <v>49000</v>
+        <v>46600</v>
       </c>
       <c r="G12" s="3">
-        <v>31400</v>
+        <v>29900</v>
       </c>
       <c r="H12" s="3">
-        <v>33100</v>
+        <v>31500</v>
       </c>
       <c r="I12" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="J12" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="K12" s="3">
         <v>11500</v>
@@ -974,14 +974,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>2400</v>
       </c>
       <c r="E15" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
@@ -990,10 +990,10 @@
         <v>1100</v>
       </c>
       <c r="I15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65000</v>
+        <v>61800</v>
       </c>
       <c r="E17" s="3">
-        <v>56500</v>
+        <v>53800</v>
       </c>
       <c r="F17" s="3">
-        <v>64800</v>
+        <v>61600</v>
       </c>
       <c r="G17" s="3">
-        <v>45900</v>
+        <v>43600</v>
       </c>
       <c r="H17" s="3">
-        <v>45800</v>
+        <v>43600</v>
       </c>
       <c r="I17" s="3">
-        <v>45200</v>
+        <v>43000</v>
       </c>
       <c r="J17" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="K17" s="3">
         <v>18900</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-62400</v>
+        <v>-59400</v>
       </c>
       <c r="E18" s="3">
-        <v>-46200</v>
+        <v>-44000</v>
       </c>
       <c r="F18" s="3">
-        <v>-62700</v>
+        <v>-59600</v>
       </c>
       <c r="G18" s="3">
-        <v>-39600</v>
+        <v>-37700</v>
       </c>
       <c r="H18" s="3">
-        <v>-44200</v>
+        <v>-42000</v>
       </c>
       <c r="I18" s="3">
-        <v>-43200</v>
+        <v>-41100</v>
       </c>
       <c r="J18" s="3">
-        <v>-29500</v>
+        <v>-28000</v>
       </c>
       <c r="K18" s="3">
         <v>-18600</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4800</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="K20" s="3">
         <v>5200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-64600</v>
+        <v>-57900</v>
       </c>
       <c r="E21" s="3">
-        <v>-45900</v>
+        <v>-43700</v>
       </c>
       <c r="F21" s="3">
-        <v>-58300</v>
+        <v>-55500</v>
       </c>
       <c r="G21" s="3">
-        <v>-38500</v>
+        <v>-36600</v>
       </c>
       <c r="H21" s="3">
-        <v>-45800</v>
+        <v>-43600</v>
       </c>
       <c r="I21" s="3">
-        <v>-40700</v>
+        <v>-38700</v>
       </c>
       <c r="J21" s="3">
-        <v>-21800</v>
+        <v>-20700</v>
       </c>
       <c r="K21" s="3">
         <v>-13300</v>
@@ -1200,20 +1200,20 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-67200</v>
+        <v>-63900</v>
       </c>
       <c r="E23" s="3">
-        <v>-50700</v>
+        <v>-48300</v>
       </c>
       <c r="F23" s="3">
-        <v>-61800</v>
+        <v>-58800</v>
       </c>
       <c r="G23" s="3">
-        <v>-40500</v>
+        <v>-38500</v>
       </c>
       <c r="H23" s="3">
-        <v>-47600</v>
+        <v>-45300</v>
       </c>
       <c r="I23" s="3">
-        <v>-42700</v>
+        <v>-40600</v>
       </c>
       <c r="J23" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K23" s="3">
         <v>-13700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67300</v>
+        <v>-64000</v>
       </c>
       <c r="E26" s="3">
-        <v>-50900</v>
+        <v>-48400</v>
       </c>
       <c r="F26" s="3">
-        <v>-61900</v>
+        <v>-58900</v>
       </c>
       <c r="G26" s="3">
-        <v>-40500</v>
+        <v>-38500</v>
       </c>
       <c r="H26" s="3">
-        <v>-47600</v>
+        <v>-45300</v>
       </c>
       <c r="I26" s="3">
-        <v>-42700</v>
+        <v>-40600</v>
       </c>
       <c r="J26" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K26" s="3">
         <v>-13700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="E27" s="3">
-        <v>-50800</v>
+        <v>-48300</v>
       </c>
       <c r="F27" s="3">
-        <v>-61600</v>
+        <v>-58600</v>
       </c>
       <c r="G27" s="3">
-        <v>-40200</v>
+        <v>-38300</v>
       </c>
       <c r="H27" s="3">
-        <v>-47600</v>
+        <v>-45300</v>
       </c>
       <c r="I27" s="3">
-        <v>-42700</v>
+        <v>-40600</v>
       </c>
       <c r="J27" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K27" s="3">
         <v>-13700</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="K32" s="3">
         <v>-5200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="E33" s="3">
-        <v>-50800</v>
+        <v>-48300</v>
       </c>
       <c r="F33" s="3">
-        <v>-61600</v>
+        <v>-58600</v>
       </c>
       <c r="G33" s="3">
-        <v>-40200</v>
+        <v>-38300</v>
       </c>
       <c r="H33" s="3">
-        <v>-47600</v>
+        <v>-45300</v>
       </c>
       <c r="I33" s="3">
-        <v>-42700</v>
+        <v>-40600</v>
       </c>
       <c r="J33" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K33" s="3">
         <v>-13700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="E35" s="3">
-        <v>-50800</v>
+        <v>-48300</v>
       </c>
       <c r="F35" s="3">
-        <v>-61600</v>
+        <v>-58600</v>
       </c>
       <c r="G35" s="3">
-        <v>-40200</v>
+        <v>-38300</v>
       </c>
       <c r="H35" s="3">
-        <v>-47600</v>
+        <v>-45300</v>
       </c>
       <c r="I35" s="3">
-        <v>-42700</v>
+        <v>-40600</v>
       </c>
       <c r="J35" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K35" s="3">
         <v>-13700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>204600</v>
+        <v>194600</v>
       </c>
       <c r="E41" s="3">
-        <v>82700</v>
+        <v>78700</v>
       </c>
       <c r="F41" s="3">
-        <v>122100</v>
+        <v>116200</v>
       </c>
       <c r="G41" s="3">
-        <v>115200</v>
+        <v>109600</v>
       </c>
       <c r="H41" s="3">
-        <v>52500</v>
+        <v>49900</v>
       </c>
       <c r="I41" s="3">
-        <v>64600</v>
+        <v>61400</v>
       </c>
       <c r="J41" s="3">
-        <v>103500</v>
+        <v>98500</v>
       </c>
       <c r="K41" s="3">
         <v>127300</v>
@@ -1902,8 +1902,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
@@ -1912,13 +1912,13 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J45" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>208900</v>
+        <v>198700</v>
       </c>
       <c r="E46" s="3">
-        <v>87300</v>
+        <v>83100</v>
       </c>
       <c r="F46" s="3">
-        <v>125100</v>
+        <v>119000</v>
       </c>
       <c r="G46" s="3">
-        <v>118200</v>
+        <v>112500</v>
       </c>
       <c r="H46" s="3">
-        <v>55200</v>
+        <v>52500</v>
       </c>
       <c r="I46" s="3">
-        <v>67700</v>
+        <v>64400</v>
       </c>
       <c r="J46" s="3">
-        <v>106700</v>
+        <v>101500</v>
       </c>
       <c r="K46" s="3">
         <v>128600</v>
@@ -2065,7 +2065,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19100</v>
+        <v>18100</v>
       </c>
       <c r="E48" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="F48" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -2155,7 +2155,7 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>228600</v>
+        <v>217500</v>
       </c>
       <c r="E54" s="3">
-        <v>107700</v>
+        <v>102500</v>
       </c>
       <c r="F54" s="3">
-        <v>128200</v>
+        <v>122000</v>
       </c>
       <c r="G54" s="3">
-        <v>120300</v>
+        <v>114400</v>
       </c>
       <c r="H54" s="3">
-        <v>57900</v>
+        <v>55100</v>
       </c>
       <c r="I54" s="3">
-        <v>71500</v>
+        <v>68000</v>
       </c>
       <c r="J54" s="3">
-        <v>109200</v>
+        <v>103900</v>
       </c>
       <c r="K54" s="3">
         <v>130100</v>
@@ -2420,10 +2420,10 @@
         <v>600</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
@@ -2444,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="E58" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23000</v>
+        <v>21900</v>
       </c>
       <c r="E59" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G59" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="H59" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="I59" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="J59" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K59" s="3">
         <v>2000</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30100</v>
+        <v>28600</v>
       </c>
       <c r="E60" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="F60" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="G60" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H60" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="I60" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="J60" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K60" s="3">
         <v>3400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59000</v>
+        <v>56100</v>
       </c>
       <c r="E61" s="3">
-        <v>34800</v>
+        <v>33100</v>
       </c>
       <c r="F61" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="G61" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="H61" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="I61" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J61" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K61" s="3">
         <v>3200</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>104500</v>
+        <v>99400</v>
       </c>
       <c r="E66" s="3">
-        <v>45400</v>
+        <v>43200</v>
       </c>
       <c r="F66" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="G66" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="H66" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="I66" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="J66" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="K66" s="3">
         <v>6600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-345100</v>
+        <v>-329800</v>
       </c>
       <c r="E72" s="3">
-        <v>-281200</v>
+        <v>-267500</v>
       </c>
       <c r="F72" s="3">
-        <v>-231000</v>
+        <v>-219800</v>
       </c>
       <c r="G72" s="3">
-        <v>-169600</v>
+        <v>-161300</v>
       </c>
       <c r="H72" s="3">
-        <v>-130200</v>
+        <v>-123900</v>
       </c>
       <c r="I72" s="3">
-        <v>-82600</v>
+        <v>-78600</v>
       </c>
       <c r="J72" s="3">
-        <v>-40000</v>
+        <v>-38000</v>
       </c>
       <c r="K72" s="3">
         <v>-17800</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>124200</v>
+        <v>118100</v>
       </c>
       <c r="E76" s="3">
-        <v>62300</v>
+        <v>59300</v>
       </c>
       <c r="F76" s="3">
-        <v>102900</v>
+        <v>97900</v>
       </c>
       <c r="G76" s="3">
-        <v>101400</v>
+        <v>96400</v>
       </c>
       <c r="H76" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="I76" s="3">
-        <v>58000</v>
+        <v>55100</v>
       </c>
       <c r="J76" s="3">
-        <v>98000</v>
+        <v>93200</v>
       </c>
       <c r="K76" s="3">
         <v>123500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="E81" s="3">
-        <v>-50800</v>
+        <v>-48300</v>
       </c>
       <c r="F81" s="3">
-        <v>-61600</v>
+        <v>-58600</v>
       </c>
       <c r="G81" s="3">
-        <v>-40200</v>
+        <v>-38300</v>
       </c>
       <c r="H81" s="3">
-        <v>-47600</v>
+        <v>-45300</v>
       </c>
       <c r="I81" s="3">
-        <v>-42700</v>
+        <v>-40600</v>
       </c>
       <c r="J81" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="K81" s="3">
         <v>-13700</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
-        <v>1200</v>
-      </c>
       <c r="I83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-28400</v>
+        <v>-27000</v>
       </c>
       <c r="E89" s="3">
-        <v>-51300</v>
+        <v>-48800</v>
       </c>
       <c r="F89" s="3">
-        <v>-48000</v>
+        <v>-45600</v>
       </c>
       <c r="G89" s="3">
-        <v>-31100</v>
+        <v>-29600</v>
       </c>
       <c r="H89" s="3">
-        <v>-38100</v>
+        <v>-36300</v>
       </c>
       <c r="I89" s="3">
-        <v>-37300</v>
+        <v>-35500</v>
       </c>
       <c r="J89" s="3">
-        <v>-26400</v>
+        <v>-25200</v>
       </c>
       <c r="K89" s="3">
         <v>-16300</v>
@@ -3607,10 +3607,10 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>-1300</v>
@@ -3709,7 +3709,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
@@ -3724,7 +3724,7 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="J94" s="3">
         <v>-1400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>149300</v>
+        <v>142000</v>
       </c>
       <c r="E100" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="F100" s="3">
-        <v>54800</v>
+        <v>52100</v>
       </c>
       <c r="G100" s="3">
-        <v>94300</v>
+        <v>89700</v>
       </c>
       <c r="H100" s="3">
-        <v>29100</v>
+        <v>27600</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K100" s="3">
         <v>135400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>121800</v>
+        <v>115900</v>
       </c>
       <c r="E102" s="3">
-        <v>-39400</v>
+        <v>-37500</v>
       </c>
       <c r="F102" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="G102" s="3">
-        <v>62700</v>
+        <v>59700</v>
       </c>
       <c r="H102" s="3">
-        <v>-12100</v>
+        <v>-11500</v>
       </c>
       <c r="I102" s="3">
-        <v>-38900</v>
+        <v>-37000</v>
       </c>
       <c r="J102" s="3">
-        <v>-19500</v>
+        <v>-18500</v>
       </c>
       <c r="K102" s="3">
         <v>122600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E8" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F8" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H8" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42100</v>
+        <v>40400</v>
       </c>
       <c r="E12" s="3">
-        <v>37700</v>
+        <v>36300</v>
       </c>
       <c r="F12" s="3">
-        <v>46600</v>
+        <v>44800</v>
       </c>
       <c r="G12" s="3">
-        <v>29900</v>
+        <v>28700</v>
       </c>
       <c r="H12" s="3">
-        <v>31500</v>
+        <v>30200</v>
       </c>
       <c r="I12" s="3">
-        <v>32200</v>
+        <v>30900</v>
       </c>
       <c r="J12" s="3">
-        <v>23900</v>
+        <v>23000</v>
       </c>
       <c r="K12" s="3">
         <v>11500</v>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>1200</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61800</v>
+        <v>59400</v>
       </c>
       <c r="E17" s="3">
-        <v>53800</v>
+        <v>51700</v>
       </c>
       <c r="F17" s="3">
-        <v>61600</v>
+        <v>59200</v>
       </c>
       <c r="G17" s="3">
-        <v>43600</v>
+        <v>41900</v>
       </c>
       <c r="H17" s="3">
-        <v>43600</v>
+        <v>41900</v>
       </c>
       <c r="I17" s="3">
-        <v>43000</v>
+        <v>41300</v>
       </c>
       <c r="J17" s="3">
-        <v>31400</v>
+        <v>30200</v>
       </c>
       <c r="K17" s="3">
         <v>18900</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-59400</v>
+        <v>-57000</v>
       </c>
       <c r="E18" s="3">
-        <v>-44000</v>
+        <v>-42300</v>
       </c>
       <c r="F18" s="3">
-        <v>-59600</v>
+        <v>-57300</v>
       </c>
       <c r="G18" s="3">
-        <v>-37700</v>
+        <v>-36200</v>
       </c>
       <c r="H18" s="3">
-        <v>-42000</v>
+        <v>-40400</v>
       </c>
       <c r="I18" s="3">
-        <v>-41100</v>
+        <v>-39500</v>
       </c>
       <c r="J18" s="3">
-        <v>-28000</v>
+        <v>-26900</v>
       </c>
       <c r="K18" s="3">
         <v>-18600</v>
@@ -1126,22 +1126,22 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="K20" s="3">
         <v>5200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-57900</v>
+        <v>-55700</v>
       </c>
       <c r="E21" s="3">
-        <v>-43700</v>
+        <v>-42000</v>
       </c>
       <c r="F21" s="3">
-        <v>-55500</v>
+        <v>-53300</v>
       </c>
       <c r="G21" s="3">
-        <v>-36600</v>
+        <v>-35200</v>
       </c>
       <c r="H21" s="3">
-        <v>-43600</v>
+        <v>-41900</v>
       </c>
       <c r="I21" s="3">
-        <v>-38700</v>
+        <v>-37200</v>
       </c>
       <c r="J21" s="3">
-        <v>-20700</v>
+        <v>-19900</v>
       </c>
       <c r="K21" s="3">
         <v>-13300</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1216,7 +1216,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-63900</v>
+        <v>-61400</v>
       </c>
       <c r="E23" s="3">
-        <v>-48300</v>
+        <v>-46400</v>
       </c>
       <c r="F23" s="3">
-        <v>-58800</v>
+        <v>-56500</v>
       </c>
       <c r="G23" s="3">
-        <v>-38500</v>
+        <v>-37000</v>
       </c>
       <c r="H23" s="3">
-        <v>-45300</v>
+        <v>-43600</v>
       </c>
       <c r="I23" s="3">
-        <v>-40600</v>
+        <v>-39000</v>
       </c>
       <c r="J23" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="K23" s="3">
         <v>-13700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-64000</v>
+        <v>-61500</v>
       </c>
       <c r="E26" s="3">
-        <v>-48400</v>
+        <v>-46500</v>
       </c>
       <c r="F26" s="3">
-        <v>-58900</v>
+        <v>-56600</v>
       </c>
       <c r="G26" s="3">
-        <v>-38500</v>
+        <v>-37000</v>
       </c>
       <c r="H26" s="3">
-        <v>-45300</v>
+        <v>-43600</v>
       </c>
       <c r="I26" s="3">
-        <v>-40600</v>
+        <v>-39000</v>
       </c>
       <c r="J26" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="K26" s="3">
         <v>-13700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-64000</v>
+        <v>-61500</v>
       </c>
       <c r="E27" s="3">
-        <v>-48300</v>
+        <v>-46400</v>
       </c>
       <c r="F27" s="3">
-        <v>-58600</v>
+        <v>-56300</v>
       </c>
       <c r="G27" s="3">
-        <v>-38300</v>
+        <v>-36800</v>
       </c>
       <c r="H27" s="3">
-        <v>-45300</v>
+        <v>-43500</v>
       </c>
       <c r="I27" s="3">
-        <v>-40600</v>
+        <v>-39000</v>
       </c>
       <c r="J27" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="K27" s="3">
         <v>-13700</v>
@@ -1594,22 +1594,22 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="K32" s="3">
         <v>-5200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-64000</v>
+        <v>-61500</v>
       </c>
       <c r="E33" s="3">
-        <v>-48300</v>
+        <v>-46400</v>
       </c>
       <c r="F33" s="3">
-        <v>-58600</v>
+        <v>-56300</v>
       </c>
       <c r="G33" s="3">
-        <v>-38300</v>
+        <v>-36800</v>
       </c>
       <c r="H33" s="3">
-        <v>-45300</v>
+        <v>-43500</v>
       </c>
       <c r="I33" s="3">
-        <v>-40600</v>
+        <v>-39000</v>
       </c>
       <c r="J33" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="K33" s="3">
         <v>-13700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-64000</v>
+        <v>-61500</v>
       </c>
       <c r="E35" s="3">
-        <v>-48300</v>
+        <v>-46400</v>
       </c>
       <c r="F35" s="3">
-        <v>-58600</v>
+        <v>-56300</v>
       </c>
       <c r="G35" s="3">
-        <v>-38300</v>
+        <v>-36800</v>
       </c>
       <c r="H35" s="3">
-        <v>-45300</v>
+        <v>-43500</v>
       </c>
       <c r="I35" s="3">
-        <v>-40600</v>
+        <v>-39000</v>
       </c>
       <c r="J35" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="K35" s="3">
         <v>-13700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>194600</v>
+        <v>187000</v>
       </c>
       <c r="E41" s="3">
-        <v>78700</v>
+        <v>75600</v>
       </c>
       <c r="F41" s="3">
-        <v>116200</v>
+        <v>111700</v>
       </c>
       <c r="G41" s="3">
-        <v>109600</v>
+        <v>105300</v>
       </c>
       <c r="H41" s="3">
-        <v>49900</v>
+        <v>48000</v>
       </c>
       <c r="I41" s="3">
-        <v>61400</v>
+        <v>59000</v>
       </c>
       <c r="J41" s="3">
-        <v>98500</v>
+        <v>94600</v>
       </c>
       <c r="K41" s="3">
         <v>127300</v>
@@ -1909,7 +1909,7 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>900</v>
@@ -1921,7 +1921,7 @@
         <v>1200</v>
       </c>
       <c r="J43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
-        <v>3900</v>
-      </c>
       <c r="F45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J45" s="3">
         <v>2400</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>198700</v>
+        <v>191000</v>
       </c>
       <c r="E46" s="3">
-        <v>83100</v>
+        <v>79800</v>
       </c>
       <c r="F46" s="3">
-        <v>119000</v>
+        <v>114400</v>
       </c>
       <c r="G46" s="3">
-        <v>112500</v>
+        <v>108100</v>
       </c>
       <c r="H46" s="3">
-        <v>52500</v>
+        <v>50400</v>
       </c>
       <c r="I46" s="3">
-        <v>64400</v>
+        <v>61900</v>
       </c>
       <c r="J46" s="3">
-        <v>101500</v>
+        <v>97500</v>
       </c>
       <c r="K46" s="3">
         <v>128600</v>
@@ -2059,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18100</v>
+        <v>17400</v>
       </c>
       <c r="E48" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I48" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217500</v>
+        <v>209000</v>
       </c>
       <c r="E54" s="3">
-        <v>102500</v>
+        <v>98500</v>
       </c>
       <c r="F54" s="3">
-        <v>122000</v>
+        <v>117200</v>
       </c>
       <c r="G54" s="3">
-        <v>114400</v>
+        <v>109900</v>
       </c>
       <c r="H54" s="3">
-        <v>55100</v>
+        <v>53000</v>
       </c>
       <c r="I54" s="3">
-        <v>68000</v>
+        <v>65400</v>
       </c>
       <c r="J54" s="3">
-        <v>103900</v>
+        <v>99800</v>
       </c>
       <c r="K54" s="3">
         <v>130100</v>
@@ -2411,13 +2411,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2444,13 +2444,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21900</v>
+        <v>21000</v>
       </c>
       <c r="E59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8300</v>
-      </c>
       <c r="H59" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="I59" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J59" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K59" s="3">
         <v>2000</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28600</v>
+        <v>27500</v>
       </c>
       <c r="E60" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="F60" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="H60" s="3">
-        <v>8800</v>
-      </c>
       <c r="I60" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="J60" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K60" s="3">
         <v>3400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56100</v>
+        <v>53900</v>
       </c>
       <c r="E61" s="3">
-        <v>33100</v>
+        <v>31800</v>
       </c>
       <c r="F61" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="G61" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H61" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I61" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J61" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K61" s="3">
         <v>3200</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99400</v>
+        <v>95500</v>
       </c>
       <c r="E66" s="3">
-        <v>43200</v>
+        <v>41500</v>
       </c>
       <c r="F66" s="3">
-        <v>24100</v>
+        <v>23100</v>
       </c>
       <c r="G66" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="H66" s="3">
-        <v>14300</v>
+        <v>13700</v>
       </c>
       <c r="I66" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="J66" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="K66" s="3">
         <v>6600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-329800</v>
+        <v>-316900</v>
       </c>
       <c r="E72" s="3">
-        <v>-267500</v>
+        <v>-257100</v>
       </c>
       <c r="F72" s="3">
-        <v>-219800</v>
+        <v>-211200</v>
       </c>
       <c r="G72" s="3">
-        <v>-161300</v>
+        <v>-155000</v>
       </c>
       <c r="H72" s="3">
-        <v>-123900</v>
+        <v>-119100</v>
       </c>
       <c r="I72" s="3">
-        <v>-78600</v>
+        <v>-75500</v>
       </c>
       <c r="J72" s="3">
-        <v>-38000</v>
+        <v>-36500</v>
       </c>
       <c r="K72" s="3">
         <v>-17800</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>118100</v>
+        <v>113500</v>
       </c>
       <c r="E76" s="3">
-        <v>59300</v>
+        <v>56900</v>
       </c>
       <c r="F76" s="3">
-        <v>97900</v>
+        <v>94100</v>
       </c>
       <c r="G76" s="3">
-        <v>96400</v>
+        <v>92700</v>
       </c>
       <c r="H76" s="3">
-        <v>40900</v>
+        <v>39300</v>
       </c>
       <c r="I76" s="3">
-        <v>55100</v>
+        <v>53000</v>
       </c>
       <c r="J76" s="3">
-        <v>93200</v>
+        <v>89600</v>
       </c>
       <c r="K76" s="3">
         <v>123500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-64000</v>
+        <v>-61500</v>
       </c>
       <c r="E81" s="3">
-        <v>-48300</v>
+        <v>-46400</v>
       </c>
       <c r="F81" s="3">
-        <v>-58600</v>
+        <v>-56300</v>
       </c>
       <c r="G81" s="3">
-        <v>-38300</v>
+        <v>-36800</v>
       </c>
       <c r="H81" s="3">
-        <v>-45300</v>
+        <v>-43500</v>
       </c>
       <c r="I81" s="3">
-        <v>-40600</v>
+        <v>-39000</v>
       </c>
       <c r="J81" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="K81" s="3">
         <v>-13700</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
@@ -3317,7 +3317,7 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="E89" s="3">
-        <v>-48800</v>
+        <v>-46900</v>
       </c>
       <c r="F89" s="3">
-        <v>-45600</v>
+        <v>-43900</v>
       </c>
       <c r="G89" s="3">
-        <v>-29600</v>
+        <v>-28400</v>
       </c>
       <c r="H89" s="3">
-        <v>-36300</v>
+        <v>-34900</v>
       </c>
       <c r="I89" s="3">
-        <v>-35500</v>
+        <v>-34100</v>
       </c>
       <c r="J89" s="3">
-        <v>-25200</v>
+        <v>-24200</v>
       </c>
       <c r="K89" s="3">
         <v>-16300</v>
@@ -3595,7 +3595,7 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3607,7 +3607,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J91" s="3">
         <v>-1300</v>
@@ -3712,7 +3712,7 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F94" s="3">
         <v>-600</v>
@@ -3724,10 +3724,10 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>142000</v>
+        <v>136500</v>
       </c>
       <c r="E100" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="F100" s="3">
-        <v>52100</v>
+        <v>50100</v>
       </c>
       <c r="G100" s="3">
-        <v>89700</v>
+        <v>86200</v>
       </c>
       <c r="H100" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K100" s="3">
         <v>135400</v>
@@ -3963,7 +3963,7 @@
         <v>1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
@@ -3972,13 +3972,13 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>115900</v>
+        <v>111400</v>
       </c>
       <c r="E102" s="3">
-        <v>-37500</v>
+        <v>-36000</v>
       </c>
       <c r="F102" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G102" s="3">
-        <v>59700</v>
+        <v>57300</v>
       </c>
       <c r="H102" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="I102" s="3">
-        <v>-37000</v>
+        <v>-35600</v>
       </c>
       <c r="J102" s="3">
-        <v>-18500</v>
+        <v>-17800</v>
       </c>
       <c r="K102" s="3">
         <v>122600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -727,22 +727,22 @@
         <v>2400</v>
       </c>
       <c r="E8" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H8" s="3">
         <v>1500</v>
       </c>
       <c r="I8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40400</v>
+        <v>41400</v>
       </c>
       <c r="E12" s="3">
-        <v>36300</v>
+        <v>37100</v>
       </c>
       <c r="F12" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="G12" s="3">
-        <v>28700</v>
+        <v>29400</v>
       </c>
       <c r="H12" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="I12" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="J12" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="K12" s="3">
         <v>11500</v>
@@ -975,13 +975,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59400</v>
+        <v>60800</v>
       </c>
       <c r="E17" s="3">
-        <v>51700</v>
+        <v>52900</v>
       </c>
       <c r="F17" s="3">
-        <v>59200</v>
+        <v>60600</v>
       </c>
       <c r="G17" s="3">
-        <v>41900</v>
+        <v>42900</v>
       </c>
       <c r="H17" s="3">
-        <v>41900</v>
+        <v>42900</v>
       </c>
       <c r="I17" s="3">
-        <v>41300</v>
+        <v>42300</v>
       </c>
       <c r="J17" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="K17" s="3">
         <v>18900</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-57000</v>
+        <v>-58400</v>
       </c>
       <c r="E18" s="3">
-        <v>-42300</v>
+        <v>-43200</v>
       </c>
       <c r="F18" s="3">
-        <v>-57300</v>
+        <v>-58600</v>
       </c>
       <c r="G18" s="3">
-        <v>-36200</v>
+        <v>-37000</v>
       </c>
       <c r="H18" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-40400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-39500</v>
-      </c>
       <c r="J18" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="K18" s="3">
         <v>-18600</v>
@@ -1129,7 +1129,7 @@
         <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="K20" s="3">
         <v>5200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-55700</v>
+        <v>-57000</v>
       </c>
       <c r="E21" s="3">
-        <v>-42000</v>
+        <v>-43000</v>
       </c>
       <c r="F21" s="3">
-        <v>-53300</v>
+        <v>-54600</v>
       </c>
       <c r="G21" s="3">
-        <v>-35200</v>
+        <v>-36000</v>
       </c>
       <c r="H21" s="3">
-        <v>-41900</v>
+        <v>-42900</v>
       </c>
       <c r="I21" s="3">
-        <v>-37200</v>
+        <v>-38100</v>
       </c>
       <c r="J21" s="3">
-        <v>-19900</v>
+        <v>-20400</v>
       </c>
       <c r="K21" s="3">
         <v>-13300</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-61400</v>
+        <v>-62800</v>
       </c>
       <c r="E23" s="3">
-        <v>-46400</v>
+        <v>-47500</v>
       </c>
       <c r="F23" s="3">
-        <v>-56500</v>
+        <v>-57800</v>
       </c>
       <c r="G23" s="3">
-        <v>-37000</v>
+        <v>-37900</v>
       </c>
       <c r="H23" s="3">
-        <v>-43600</v>
+        <v>-44600</v>
       </c>
       <c r="I23" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="J23" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K23" s="3">
         <v>-13700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-61500</v>
+        <v>-63000</v>
       </c>
       <c r="E26" s="3">
-        <v>-46500</v>
+        <v>-47600</v>
       </c>
       <c r="F26" s="3">
-        <v>-56600</v>
+        <v>-57900</v>
       </c>
       <c r="G26" s="3">
-        <v>-37000</v>
+        <v>-37900</v>
       </c>
       <c r="H26" s="3">
-        <v>-43600</v>
+        <v>-44600</v>
       </c>
       <c r="I26" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="J26" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K26" s="3">
         <v>-13700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-61500</v>
+        <v>-62900</v>
       </c>
       <c r="E27" s="3">
-        <v>-46400</v>
+        <v>-47500</v>
       </c>
       <c r="F27" s="3">
-        <v>-56300</v>
+        <v>-57700</v>
       </c>
       <c r="G27" s="3">
-        <v>-36800</v>
+        <v>-37700</v>
       </c>
       <c r="H27" s="3">
-        <v>-43500</v>
+        <v>-44500</v>
       </c>
       <c r="I27" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="J27" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K27" s="3">
         <v>-13700</v>
@@ -1597,7 +1597,7 @@
         <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="K32" s="3">
         <v>-5200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-61500</v>
+        <v>-62900</v>
       </c>
       <c r="E33" s="3">
-        <v>-46400</v>
+        <v>-47500</v>
       </c>
       <c r="F33" s="3">
-        <v>-56300</v>
+        <v>-57700</v>
       </c>
       <c r="G33" s="3">
-        <v>-36800</v>
+        <v>-37700</v>
       </c>
       <c r="H33" s="3">
-        <v>-43500</v>
+        <v>-44500</v>
       </c>
       <c r="I33" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="J33" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K33" s="3">
         <v>-13700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-61500</v>
+        <v>-62900</v>
       </c>
       <c r="E35" s="3">
-        <v>-46400</v>
+        <v>-47500</v>
       </c>
       <c r="F35" s="3">
-        <v>-56300</v>
+        <v>-57700</v>
       </c>
       <c r="G35" s="3">
-        <v>-36800</v>
+        <v>-37700</v>
       </c>
       <c r="H35" s="3">
-        <v>-43500</v>
+        <v>-44500</v>
       </c>
       <c r="I35" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="J35" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K35" s="3">
         <v>-13700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>187000</v>
+        <v>191400</v>
       </c>
       <c r="E41" s="3">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="F41" s="3">
-        <v>111700</v>
+        <v>114300</v>
       </c>
       <c r="G41" s="3">
-        <v>105300</v>
+        <v>107800</v>
       </c>
       <c r="H41" s="3">
-        <v>48000</v>
+        <v>49100</v>
       </c>
       <c r="I41" s="3">
-        <v>59000</v>
+        <v>60400</v>
       </c>
       <c r="J41" s="3">
-        <v>94600</v>
+        <v>96800</v>
       </c>
       <c r="K41" s="3">
         <v>127300</v>
@@ -1921,7 +1921,7 @@
         <v>1200</v>
       </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
@@ -1981,10 +1981,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F45" s="3">
         <v>2400</v>
@@ -1996,7 +1996,7 @@
         <v>2400</v>
       </c>
       <c r="I45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J45" s="3">
         <v>2400</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>191000</v>
+        <v>195500</v>
       </c>
       <c r="E46" s="3">
-        <v>79800</v>
+        <v>81700</v>
       </c>
       <c r="F46" s="3">
-        <v>114400</v>
+        <v>117100</v>
       </c>
       <c r="G46" s="3">
-        <v>108100</v>
+        <v>110600</v>
       </c>
       <c r="H46" s="3">
-        <v>50400</v>
+        <v>51600</v>
       </c>
       <c r="I46" s="3">
-        <v>61900</v>
+        <v>63300</v>
       </c>
       <c r="J46" s="3">
-        <v>97500</v>
+        <v>99800</v>
       </c>
       <c r="K46" s="3">
         <v>128600</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="E48" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="F48" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
       </c>
       <c r="H48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J48" s="3">
         <v>2200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>209000</v>
+        <v>213900</v>
       </c>
       <c r="E54" s="3">
-        <v>98500</v>
+        <v>100800</v>
       </c>
       <c r="F54" s="3">
-        <v>117200</v>
+        <v>120000</v>
       </c>
       <c r="G54" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="H54" s="3">
-        <v>53000</v>
+        <v>54200</v>
       </c>
       <c r="I54" s="3">
-        <v>65400</v>
+        <v>66900</v>
       </c>
       <c r="J54" s="3">
-        <v>99800</v>
+        <v>102200</v>
       </c>
       <c r="K54" s="3">
         <v>130100</v>
@@ -2411,13 +2411,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2444,13 +2444,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="E59" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F59" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G59" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="H59" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I59" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J59" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K59" s="3">
         <v>2000</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27500</v>
+        <v>28200</v>
       </c>
       <c r="E60" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="F60" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="G60" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="H60" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I60" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J60" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K60" s="3">
         <v>3400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53900</v>
+        <v>55200</v>
       </c>
       <c r="E61" s="3">
-        <v>31800</v>
+        <v>32500</v>
       </c>
       <c r="F61" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="G61" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="H61" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I61" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K61" s="3">
         <v>3200</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95500</v>
+        <v>97700</v>
       </c>
       <c r="E66" s="3">
-        <v>41500</v>
+        <v>42500</v>
       </c>
       <c r="F66" s="3">
-        <v>23100</v>
+        <v>23700</v>
       </c>
       <c r="G66" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="H66" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="I66" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J66" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="K66" s="3">
         <v>6600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-316900</v>
+        <v>-324400</v>
       </c>
       <c r="E72" s="3">
-        <v>-257100</v>
+        <v>-263100</v>
       </c>
       <c r="F72" s="3">
-        <v>-211200</v>
+        <v>-216200</v>
       </c>
       <c r="G72" s="3">
-        <v>-155000</v>
+        <v>-158700</v>
       </c>
       <c r="H72" s="3">
-        <v>-119100</v>
+        <v>-121900</v>
       </c>
       <c r="I72" s="3">
-        <v>-75500</v>
+        <v>-77300</v>
       </c>
       <c r="J72" s="3">
-        <v>-36500</v>
+        <v>-37400</v>
       </c>
       <c r="K72" s="3">
         <v>-17800</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>113500</v>
+        <v>116200</v>
       </c>
       <c r="E76" s="3">
-        <v>56900</v>
+        <v>58300</v>
       </c>
       <c r="F76" s="3">
-        <v>94100</v>
+        <v>96300</v>
       </c>
       <c r="G76" s="3">
-        <v>92700</v>
+        <v>94800</v>
       </c>
       <c r="H76" s="3">
-        <v>39300</v>
+        <v>40200</v>
       </c>
       <c r="I76" s="3">
-        <v>53000</v>
+        <v>54200</v>
       </c>
       <c r="J76" s="3">
-        <v>89600</v>
+        <v>91700</v>
       </c>
       <c r="K76" s="3">
         <v>123500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-61500</v>
+        <v>-62900</v>
       </c>
       <c r="E81" s="3">
-        <v>-46400</v>
+        <v>-47500</v>
       </c>
       <c r="F81" s="3">
-        <v>-56300</v>
+        <v>-57700</v>
       </c>
       <c r="G81" s="3">
-        <v>-36800</v>
+        <v>-37700</v>
       </c>
       <c r="H81" s="3">
-        <v>-43500</v>
+        <v>-44500</v>
       </c>
       <c r="I81" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="J81" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K81" s="3">
         <v>-13700</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
@@ -3317,7 +3317,7 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-25900</v>
+        <v>-26600</v>
       </c>
       <c r="E89" s="3">
-        <v>-46900</v>
+        <v>-48000</v>
       </c>
       <c r="F89" s="3">
-        <v>-43900</v>
+        <v>-44900</v>
       </c>
       <c r="G89" s="3">
-        <v>-28400</v>
+        <v>-29100</v>
       </c>
       <c r="H89" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-34900</v>
       </c>
-      <c r="I89" s="3">
-        <v>-34100</v>
-      </c>
       <c r="J89" s="3">
-        <v>-24200</v>
+        <v>-24700</v>
       </c>
       <c r="K89" s="3">
         <v>-16300</v>
@@ -3607,7 +3607,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="J91" s="3">
         <v>-1300</v>
@@ -3724,10 +3724,10 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>136500</v>
+        <v>139700</v>
       </c>
       <c r="E100" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F100" s="3">
-        <v>50100</v>
+        <v>51200</v>
       </c>
       <c r="G100" s="3">
-        <v>86200</v>
+        <v>88300</v>
       </c>
       <c r="H100" s="3">
-        <v>26600</v>
+        <v>27200</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K100" s="3">
         <v>135400</v>
@@ -3963,7 +3963,7 @@
         <v>1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
@@ -3975,10 +3975,10 @@
         <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>111400</v>
+        <v>114000</v>
       </c>
       <c r="E102" s="3">
-        <v>-36000</v>
+        <v>-36900</v>
       </c>
       <c r="F102" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G102" s="3">
-        <v>57300</v>
+        <v>58700</v>
       </c>
       <c r="H102" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="I102" s="3">
-        <v>-35600</v>
+        <v>-36400</v>
       </c>
       <c r="J102" s="3">
-        <v>-17800</v>
+        <v>-18200</v>
       </c>
       <c r="K102" s="3">
         <v>122600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
       </c>
       <c r="G8" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I8" s="3">
         <v>1900</v>
       </c>
       <c r="J8" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="E12" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="F12" s="3">
-        <v>45800</v>
+        <v>47500</v>
       </c>
       <c r="G12" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="H12" s="3">
-        <v>30900</v>
+        <v>32100</v>
       </c>
       <c r="I12" s="3">
-        <v>31700</v>
+        <v>32800</v>
       </c>
       <c r="J12" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="K12" s="3">
         <v>11500</v>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I15" s="3">
         <v>1200</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>60800</v>
+        <v>63000</v>
       </c>
       <c r="E17" s="3">
-        <v>52900</v>
+        <v>54800</v>
       </c>
       <c r="F17" s="3">
-        <v>60600</v>
+        <v>62800</v>
       </c>
       <c r="G17" s="3">
-        <v>42900</v>
+        <v>44500</v>
       </c>
       <c r="H17" s="3">
-        <v>42900</v>
+        <v>44400</v>
       </c>
       <c r="I17" s="3">
-        <v>42300</v>
+        <v>43800</v>
       </c>
       <c r="J17" s="3">
-        <v>30900</v>
+        <v>32000</v>
       </c>
       <c r="K17" s="3">
         <v>18900</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-58400</v>
+        <v>-60500</v>
       </c>
       <c r="E18" s="3">
-        <v>-43200</v>
+        <v>-44800</v>
       </c>
       <c r="F18" s="3">
-        <v>-58600</v>
+        <v>-60800</v>
       </c>
       <c r="G18" s="3">
-        <v>-37000</v>
+        <v>-38400</v>
       </c>
       <c r="H18" s="3">
-        <v>-41300</v>
+        <v>-42800</v>
       </c>
       <c r="I18" s="3">
-        <v>-40400</v>
+        <v>-41900</v>
       </c>
       <c r="J18" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="K18" s="3">
         <v>-18600</v>
@@ -1126,7 +1126,7 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F20" s="3">
         <v>2000</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="I20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J20" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="K20" s="3">
         <v>5200</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-57000</v>
+        <v>-59100</v>
       </c>
       <c r="E21" s="3">
-        <v>-43000</v>
+        <v>-44500</v>
       </c>
       <c r="F21" s="3">
-        <v>-54600</v>
+        <v>-56600</v>
       </c>
       <c r="G21" s="3">
-        <v>-36000</v>
+        <v>-37300</v>
       </c>
       <c r="H21" s="3">
-        <v>-42900</v>
+        <v>-44500</v>
       </c>
       <c r="I21" s="3">
-        <v>-38100</v>
+        <v>-39500</v>
       </c>
       <c r="J21" s="3">
-        <v>-20400</v>
+        <v>-21100</v>
       </c>
       <c r="K21" s="3">
         <v>-13300</v>
@@ -1201,22 +1201,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62800</v>
+        <v>-65100</v>
       </c>
       <c r="E23" s="3">
-        <v>-47500</v>
+        <v>-49200</v>
       </c>
       <c r="F23" s="3">
-        <v>-57800</v>
+        <v>-59900</v>
       </c>
       <c r="G23" s="3">
-        <v>-37900</v>
+        <v>-39200</v>
       </c>
       <c r="H23" s="3">
-        <v>-44600</v>
+        <v>-46200</v>
       </c>
       <c r="I23" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="J23" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="K23" s="3">
         <v>-13700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-63000</v>
+        <v>-65300</v>
       </c>
       <c r="E26" s="3">
-        <v>-47600</v>
+        <v>-49300</v>
       </c>
       <c r="F26" s="3">
-        <v>-57900</v>
+        <v>-60000</v>
       </c>
       <c r="G26" s="3">
-        <v>-37900</v>
+        <v>-39200</v>
       </c>
       <c r="H26" s="3">
-        <v>-44600</v>
+        <v>-46200</v>
       </c>
       <c r="I26" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="J26" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="K26" s="3">
         <v>-13700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-62900</v>
+        <v>-65200</v>
       </c>
       <c r="E27" s="3">
-        <v>-47500</v>
+        <v>-49300</v>
       </c>
       <c r="F27" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="G27" s="3">
-        <v>-37700</v>
+        <v>-39000</v>
       </c>
       <c r="H27" s="3">
-        <v>-44500</v>
+        <v>-46200</v>
       </c>
       <c r="I27" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="J27" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="K27" s="3">
         <v>-13700</v>
@@ -1594,7 +1594,7 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F32" s="3">
         <v>-2000</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J32" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="K32" s="3">
         <v>-5200</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-62900</v>
+        <v>-65200</v>
       </c>
       <c r="E33" s="3">
-        <v>-47500</v>
+        <v>-49300</v>
       </c>
       <c r="F33" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="G33" s="3">
-        <v>-37700</v>
+        <v>-39000</v>
       </c>
       <c r="H33" s="3">
-        <v>-44500</v>
+        <v>-46200</v>
       </c>
       <c r="I33" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="J33" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="K33" s="3">
         <v>-13700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-62900</v>
+        <v>-65200</v>
       </c>
       <c r="E35" s="3">
-        <v>-47500</v>
+        <v>-49300</v>
       </c>
       <c r="F35" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="G35" s="3">
-        <v>-37700</v>
+        <v>-39000</v>
       </c>
       <c r="H35" s="3">
-        <v>-44500</v>
+        <v>-46200</v>
       </c>
       <c r="I35" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="J35" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="K35" s="3">
         <v>-13700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>191400</v>
+        <v>198400</v>
       </c>
       <c r="E41" s="3">
-        <v>77400</v>
+        <v>80200</v>
       </c>
       <c r="F41" s="3">
-        <v>114300</v>
+        <v>118400</v>
       </c>
       <c r="G41" s="3">
-        <v>107800</v>
+        <v>111700</v>
       </c>
       <c r="H41" s="3">
-        <v>49100</v>
+        <v>50900</v>
       </c>
       <c r="I41" s="3">
-        <v>60400</v>
+        <v>62600</v>
       </c>
       <c r="J41" s="3">
-        <v>96800</v>
+        <v>100400</v>
       </c>
       <c r="K41" s="3">
         <v>127300</v>
@@ -1909,10 +1909,10 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E45" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I45" s="3">
         <v>1700</v>
       </c>
       <c r="J45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>195500</v>
+        <v>202600</v>
       </c>
       <c r="E46" s="3">
-        <v>81700</v>
+        <v>84700</v>
       </c>
       <c r="F46" s="3">
-        <v>117100</v>
+        <v>121300</v>
       </c>
       <c r="G46" s="3">
-        <v>110600</v>
+        <v>114700</v>
       </c>
       <c r="H46" s="3">
-        <v>51600</v>
+        <v>53500</v>
       </c>
       <c r="I46" s="3">
-        <v>63300</v>
+        <v>65600</v>
       </c>
       <c r="J46" s="3">
-        <v>99800</v>
+        <v>103400</v>
       </c>
       <c r="K46" s="3">
         <v>128600</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17800</v>
+        <v>18500</v>
       </c>
       <c r="E48" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I48" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>213900</v>
+        <v>221700</v>
       </c>
       <c r="E54" s="3">
-        <v>100800</v>
+        <v>104500</v>
       </c>
       <c r="F54" s="3">
-        <v>120000</v>
+        <v>124400</v>
       </c>
       <c r="G54" s="3">
-        <v>112500</v>
+        <v>116600</v>
       </c>
       <c r="H54" s="3">
-        <v>54200</v>
+        <v>56200</v>
       </c>
       <c r="I54" s="3">
-        <v>66900</v>
+        <v>69300</v>
       </c>
       <c r="J54" s="3">
-        <v>102200</v>
+        <v>105900</v>
       </c>
       <c r="K54" s="3">
         <v>130100</v>
@@ -2444,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="E58" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="E59" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="F59" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="G59" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="H59" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="I59" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="J59" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K59" s="3">
         <v>2000</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="E60" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="F60" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G60" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="H60" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="I60" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="J60" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="K60" s="3">
         <v>3400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55200</v>
+        <v>57200</v>
       </c>
       <c r="E61" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="F61" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="G61" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="H61" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I61" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J61" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="K61" s="3">
         <v>3200</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97700</v>
+        <v>101300</v>
       </c>
       <c r="E66" s="3">
-        <v>42500</v>
+        <v>44100</v>
       </c>
       <c r="F66" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="G66" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="H66" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="I66" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="J66" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="K66" s="3">
         <v>6600</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-324400</v>
+        <v>-336200</v>
       </c>
       <c r="E72" s="3">
-        <v>-263100</v>
+        <v>-272700</v>
       </c>
       <c r="F72" s="3">
-        <v>-216200</v>
+        <v>-224000</v>
       </c>
       <c r="G72" s="3">
-        <v>-158700</v>
+        <v>-164500</v>
       </c>
       <c r="H72" s="3">
-        <v>-121900</v>
+        <v>-126300</v>
       </c>
       <c r="I72" s="3">
-        <v>-77300</v>
+        <v>-80100</v>
       </c>
       <c r="J72" s="3">
-        <v>-37400</v>
+        <v>-38800</v>
       </c>
       <c r="K72" s="3">
         <v>-17800</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>116200</v>
+        <v>120400</v>
       </c>
       <c r="E76" s="3">
-        <v>58300</v>
+        <v>60400</v>
       </c>
       <c r="F76" s="3">
-        <v>96300</v>
+        <v>99800</v>
       </c>
       <c r="G76" s="3">
-        <v>94800</v>
+        <v>98300</v>
       </c>
       <c r="H76" s="3">
-        <v>40200</v>
+        <v>41600</v>
       </c>
       <c r="I76" s="3">
-        <v>54200</v>
+        <v>56200</v>
       </c>
       <c r="J76" s="3">
-        <v>91700</v>
+        <v>95000</v>
       </c>
       <c r="K76" s="3">
         <v>123500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-62900</v>
+        <v>-65200</v>
       </c>
       <c r="E81" s="3">
-        <v>-47500</v>
+        <v>-49300</v>
       </c>
       <c r="F81" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="G81" s="3">
-        <v>-37700</v>
+        <v>-39000</v>
       </c>
       <c r="H81" s="3">
-        <v>-44500</v>
+        <v>-46200</v>
       </c>
       <c r="I81" s="3">
-        <v>-39900</v>
+        <v>-41400</v>
       </c>
       <c r="J81" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="K81" s="3">
         <v>-13700</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-26600</v>
+        <v>-27500</v>
       </c>
       <c r="E89" s="3">
-        <v>-48000</v>
+        <v>-49800</v>
       </c>
       <c r="F89" s="3">
-        <v>-44900</v>
+        <v>-46500</v>
       </c>
       <c r="G89" s="3">
-        <v>-29100</v>
+        <v>-30100</v>
       </c>
       <c r="H89" s="3">
-        <v>-35700</v>
+        <v>-37000</v>
       </c>
       <c r="I89" s="3">
-        <v>-34900</v>
+        <v>-36200</v>
       </c>
       <c r="J89" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="K89" s="3">
         <v>-16300</v>
@@ -3595,7 +3595,7 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3607,10 +3607,10 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-1300</v>
@@ -3712,7 +3712,7 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F94" s="3">
         <v>-600</v>
@@ -3724,7 +3724,7 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J94" s="3">
         <v>-1400</v>
@@ -3921,19 +3921,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>139700</v>
+        <v>144800</v>
       </c>
       <c r="E100" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="F100" s="3">
-        <v>51200</v>
+        <v>53100</v>
       </c>
       <c r="G100" s="3">
-        <v>88300</v>
+        <v>91500</v>
       </c>
       <c r="H100" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>114000</v>
+        <v>118200</v>
       </c>
       <c r="E102" s="3">
-        <v>-36900</v>
+        <v>-38200</v>
       </c>
       <c r="F102" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="G102" s="3">
-        <v>58700</v>
+        <v>60800</v>
       </c>
       <c r="H102" s="3">
-        <v>-11300</v>
+        <v>-11700</v>
       </c>
       <c r="I102" s="3">
-        <v>-36400</v>
+        <v>-37700</v>
       </c>
       <c r="J102" s="3">
-        <v>-18200</v>
+        <v>-18900</v>
       </c>
       <c r="K102" s="3">
         <v>122600</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>PRQR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,106 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="E8" s="3">
-        <v>10000</v>
+        <v>2600</v>
       </c>
       <c r="F8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,9 +801,12 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42900</v>
+        <v>52500</v>
       </c>
       <c r="E12" s="3">
-        <v>38500</v>
+        <v>43600</v>
       </c>
       <c r="F12" s="3">
-        <v>47500</v>
+        <v>39100</v>
       </c>
       <c r="G12" s="3">
-        <v>30500</v>
+        <v>48400</v>
       </c>
       <c r="H12" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="I12" s="3">
-        <v>32800</v>
+        <v>32600</v>
       </c>
       <c r="J12" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K12" s="3">
         <v>24400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,32 +945,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,48 +987,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
         <v>2500</v>
       </c>
       <c r="F15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1100</v>
       </c>
-      <c r="I15" s="3">
-        <v>1200</v>
-      </c>
       <c r="J15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63000</v>
+        <v>76400</v>
       </c>
       <c r="E17" s="3">
-        <v>54800</v>
+        <v>64200</v>
       </c>
       <c r="F17" s="3">
-        <v>62800</v>
+        <v>55800</v>
       </c>
       <c r="G17" s="3">
-        <v>44500</v>
+        <v>63900</v>
       </c>
       <c r="H17" s="3">
-        <v>44400</v>
+        <v>45300</v>
       </c>
       <c r="I17" s="3">
-        <v>43800</v>
+        <v>45200</v>
       </c>
       <c r="J17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K17" s="3">
         <v>32000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-60500</v>
+        <v>-71200</v>
       </c>
       <c r="E18" s="3">
-        <v>-44800</v>
+        <v>-61600</v>
       </c>
       <c r="F18" s="3">
-        <v>-60800</v>
+        <v>-45600</v>
       </c>
       <c r="G18" s="3">
-        <v>-38400</v>
+        <v>-61900</v>
       </c>
       <c r="H18" s="3">
-        <v>-42800</v>
+        <v>-39100</v>
       </c>
       <c r="I18" s="3">
-        <v>-41900</v>
+        <v>-43600</v>
       </c>
       <c r="J18" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-28600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,164 +1149,177 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>2000</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-59100</v>
+        <v>-62400</v>
       </c>
       <c r="E21" s="3">
-        <v>-44500</v>
+        <v>-60100</v>
       </c>
       <c r="F21" s="3">
-        <v>-56600</v>
+        <v>-45300</v>
       </c>
       <c r="G21" s="3">
-        <v>-37300</v>
+        <v>-57600</v>
       </c>
       <c r="H21" s="3">
-        <v>-44500</v>
+        <v>-38000</v>
       </c>
       <c r="I21" s="3">
-        <v>-39500</v>
+        <v>-45200</v>
       </c>
       <c r="J21" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-21100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
-        <v>1100</v>
-      </c>
       <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-65100</v>
+        <v>-69800</v>
       </c>
       <c r="E23" s="3">
-        <v>-49200</v>
+        <v>-66300</v>
       </c>
       <c r="F23" s="3">
-        <v>-59900</v>
+        <v>-50100</v>
       </c>
       <c r="G23" s="3">
-        <v>-39200</v>
+        <v>-61000</v>
       </c>
       <c r="H23" s="3">
-        <v>-46200</v>
+        <v>-39900</v>
       </c>
       <c r="I23" s="3">
-        <v>-41400</v>
+        <v>-47000</v>
       </c>
       <c r="J23" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1299,21 +1344,24 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-65300</v>
+        <v>-69900</v>
       </c>
       <c r="E26" s="3">
-        <v>-49300</v>
+        <v>-66400</v>
       </c>
       <c r="F26" s="3">
-        <v>-60000</v>
+        <v>-50200</v>
       </c>
       <c r="G26" s="3">
-        <v>-39200</v>
+        <v>-61100</v>
       </c>
       <c r="H26" s="3">
-        <v>-46200</v>
+        <v>-39900</v>
       </c>
       <c r="I26" s="3">
-        <v>-41400</v>
+        <v>-47000</v>
       </c>
       <c r="J26" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-22000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-65200</v>
+        <v>-70100</v>
       </c>
       <c r="E27" s="3">
-        <v>-49300</v>
+        <v>-66400</v>
       </c>
       <c r="F27" s="3">
-        <v>-59800</v>
+        <v>-50100</v>
       </c>
       <c r="G27" s="3">
-        <v>-39000</v>
+        <v>-60800</v>
       </c>
       <c r="H27" s="3">
-        <v>-46200</v>
+        <v>-39700</v>
       </c>
       <c r="I27" s="3">
-        <v>-41400</v>
+        <v>-47000</v>
       </c>
       <c r="J27" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-65200</v>
+        <v>-70100</v>
       </c>
       <c r="E33" s="3">
-        <v>-49300</v>
+        <v>-66400</v>
       </c>
       <c r="F33" s="3">
-        <v>-59800</v>
+        <v>-50100</v>
       </c>
       <c r="G33" s="3">
-        <v>-39000</v>
+        <v>-60800</v>
       </c>
       <c r="H33" s="3">
-        <v>-46200</v>
+        <v>-39700</v>
       </c>
       <c r="I33" s="3">
-        <v>-41400</v>
+        <v>-47000</v>
       </c>
       <c r="J33" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-65200</v>
+        <v>-70100</v>
       </c>
       <c r="E35" s="3">
-        <v>-49300</v>
+        <v>-66400</v>
       </c>
       <c r="F35" s="3">
-        <v>-59800</v>
+        <v>-50100</v>
       </c>
       <c r="G35" s="3">
-        <v>-39000</v>
+        <v>-60800</v>
       </c>
       <c r="H35" s="3">
-        <v>-46200</v>
+        <v>-39700</v>
       </c>
       <c r="I35" s="3">
-        <v>-41400</v>
+        <v>-47000</v>
       </c>
       <c r="J35" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>198400</v>
+        <v>102100</v>
       </c>
       <c r="E41" s="3">
-        <v>80200</v>
+        <v>201900</v>
       </c>
       <c r="F41" s="3">
-        <v>118400</v>
+        <v>81700</v>
       </c>
       <c r="G41" s="3">
-        <v>111700</v>
+        <v>120600</v>
       </c>
       <c r="H41" s="3">
-        <v>50900</v>
+        <v>113700</v>
       </c>
       <c r="I41" s="3">
-        <v>62600</v>
+        <v>51800</v>
       </c>
       <c r="J41" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K41" s="3">
         <v>100400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>127300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,48 +1985,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>1200</v>
-      </c>
       <c r="J43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,87 +2069,96 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
         <v>4000</v>
       </c>
       <c r="F45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>202600</v>
+        <v>166300</v>
       </c>
       <c r="E46" s="3">
-        <v>84700</v>
+        <v>206200</v>
       </c>
       <c r="F46" s="3">
-        <v>121300</v>
+        <v>86200</v>
       </c>
       <c r="G46" s="3">
-        <v>114700</v>
+        <v>123500</v>
       </c>
       <c r="H46" s="3">
-        <v>53500</v>
+        <v>116700</v>
       </c>
       <c r="I46" s="3">
-        <v>65600</v>
+        <v>54400</v>
       </c>
       <c r="J46" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K46" s="3">
         <v>103400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>128600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2062,14 +2166,14 @@
         <v>700</v>
       </c>
       <c r="E47" s="3">
+        <v>700</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,54 +2189,60 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="E48" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="F48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
-        <v>3600</v>
-      </c>
       <c r="J48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2145,33 +2255,36 @@
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
       <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2363,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>221700</v>
+        <v>184500</v>
       </c>
       <c r="E54" s="3">
-        <v>104500</v>
+        <v>225700</v>
       </c>
       <c r="F54" s="3">
-        <v>124400</v>
+        <v>106300</v>
       </c>
       <c r="G54" s="3">
-        <v>116600</v>
+        <v>126600</v>
       </c>
       <c r="H54" s="3">
-        <v>56200</v>
+        <v>118700</v>
       </c>
       <c r="I54" s="3">
-        <v>69300</v>
+        <v>57200</v>
       </c>
       <c r="J54" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K54" s="3">
         <v>105900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>130100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,68 +2528,72 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6700</v>
+        <v>4200</v>
       </c>
       <c r="E58" s="3">
-        <v>2500</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2468,142 +2601,154 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22300</v>
+        <v>18100</v>
       </c>
       <c r="E59" s="3">
-        <v>8100</v>
+        <v>22700</v>
       </c>
       <c r="F59" s="3">
-        <v>10300</v>
+        <v>8300</v>
       </c>
       <c r="G59" s="3">
-        <v>8500</v>
+        <v>10400</v>
       </c>
       <c r="H59" s="3">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="I59" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="J59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29200</v>
+        <v>22700</v>
       </c>
       <c r="E60" s="3">
-        <v>10900</v>
+        <v>29700</v>
       </c>
       <c r="F60" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="G60" s="3">
-        <v>8600</v>
+        <v>11800</v>
       </c>
       <c r="H60" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="I60" s="3">
-        <v>7100</v>
+        <v>9100</v>
       </c>
       <c r="J60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57200</v>
+        <v>19500</v>
       </c>
       <c r="E61" s="3">
-        <v>33700</v>
+        <v>58200</v>
       </c>
       <c r="F61" s="3">
-        <v>13400</v>
+        <v>34300</v>
       </c>
       <c r="G61" s="3">
-        <v>9900</v>
+        <v>13700</v>
       </c>
       <c r="H61" s="3">
-        <v>5600</v>
+        <v>10100</v>
       </c>
       <c r="I61" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>72200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2765,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101300</v>
+        <v>114000</v>
       </c>
       <c r="E66" s="3">
-        <v>44100</v>
+        <v>103100</v>
       </c>
       <c r="F66" s="3">
-        <v>24600</v>
+        <v>44800</v>
       </c>
       <c r="G66" s="3">
-        <v>18300</v>
+        <v>25000</v>
       </c>
       <c r="H66" s="3">
-        <v>14500</v>
+        <v>18600</v>
       </c>
       <c r="I66" s="3">
-        <v>13100</v>
+        <v>14800</v>
       </c>
       <c r="J66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K66" s="3">
         <v>10900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-336200</v>
+        <v>-410000</v>
       </c>
       <c r="E72" s="3">
-        <v>-272700</v>
+        <v>-342200</v>
       </c>
       <c r="F72" s="3">
-        <v>-224000</v>
+        <v>-277600</v>
       </c>
       <c r="G72" s="3">
-        <v>-164500</v>
+        <v>-228000</v>
       </c>
       <c r="H72" s="3">
-        <v>-126300</v>
+        <v>-167400</v>
       </c>
       <c r="I72" s="3">
-        <v>-80100</v>
+        <v>-128500</v>
       </c>
       <c r="J72" s="3">
+        <v>-81600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-38800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>120400</v>
+        <v>70500</v>
       </c>
       <c r="E76" s="3">
-        <v>60400</v>
+        <v>122600</v>
       </c>
       <c r="F76" s="3">
-        <v>99800</v>
+        <v>61500</v>
       </c>
       <c r="G76" s="3">
-        <v>98300</v>
+        <v>101600</v>
       </c>
       <c r="H76" s="3">
-        <v>41600</v>
+        <v>100100</v>
       </c>
       <c r="I76" s="3">
-        <v>56200</v>
+        <v>42400</v>
       </c>
       <c r="J76" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K76" s="3">
         <v>95000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-65200</v>
+        <v>-70100</v>
       </c>
       <c r="E81" s="3">
-        <v>-49300</v>
+        <v>-66400</v>
       </c>
       <c r="F81" s="3">
-        <v>-59800</v>
+        <v>-50100</v>
       </c>
       <c r="G81" s="3">
-        <v>-39000</v>
+        <v>-60800</v>
       </c>
       <c r="H81" s="3">
-        <v>-46200</v>
+        <v>-39700</v>
       </c>
       <c r="I81" s="3">
-        <v>-41400</v>
+        <v>-47000</v>
       </c>
       <c r="J81" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
         <v>2500</v>
       </c>
       <c r="F83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G83" s="3">
         <v>2200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1000</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-27500</v>
+        <v>-73800</v>
       </c>
       <c r="E89" s="3">
-        <v>-49800</v>
+        <v>-28000</v>
       </c>
       <c r="F89" s="3">
-        <v>-46500</v>
+        <v>-50700</v>
       </c>
       <c r="G89" s="3">
-        <v>-30100</v>
+        <v>-47400</v>
       </c>
       <c r="H89" s="3">
-        <v>-37000</v>
+        <v>-30700</v>
       </c>
       <c r="I89" s="3">
-        <v>-36200</v>
+        <v>-37600</v>
       </c>
       <c r="J89" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-25600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
       </c>
       <c r="L94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>144800</v>
+        <v>-33300</v>
       </c>
       <c r="E100" s="3">
-        <v>15300</v>
+        <v>147400</v>
       </c>
       <c r="F100" s="3">
-        <v>53100</v>
+        <v>15600</v>
       </c>
       <c r="G100" s="3">
-        <v>91500</v>
+        <v>54100</v>
       </c>
       <c r="H100" s="3">
-        <v>28200</v>
+        <v>93100</v>
       </c>
       <c r="I100" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>135400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2800</v>
-      </c>
       <c r="I101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118200</v>
+        <v>-99900</v>
       </c>
       <c r="E102" s="3">
-        <v>-38200</v>
+        <v>120300</v>
       </c>
       <c r="F102" s="3">
-        <v>6700</v>
+        <v>-38900</v>
       </c>
       <c r="G102" s="3">
-        <v>60800</v>
+        <v>6900</v>
       </c>
       <c r="H102" s="3">
-        <v>-11700</v>
+        <v>61900</v>
       </c>
       <c r="I102" s="3">
-        <v>-37700</v>
+        <v>-12000</v>
       </c>
       <c r="J102" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-18900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>122600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>52500</v>
+        <v>52900</v>
       </c>
       <c r="E12" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="F12" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="G12" s="3">
-        <v>48400</v>
+        <v>48700</v>
       </c>
       <c r="H12" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="I12" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="J12" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="K12" s="3">
         <v>24400</v>
@@ -1003,7 +1003,7 @@
         <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G15" s="3">
         <v>2200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>76400</v>
+        <v>76900</v>
       </c>
       <c r="E17" s="3">
-        <v>64200</v>
+        <v>64600</v>
       </c>
       <c r="F17" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="G17" s="3">
-        <v>63900</v>
+        <v>64400</v>
       </c>
       <c r="H17" s="3">
-        <v>45300</v>
+        <v>45600</v>
       </c>
       <c r="I17" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="J17" s="3">
-        <v>44600</v>
+        <v>44900</v>
       </c>
       <c r="K17" s="3">
         <v>32000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-71200</v>
+        <v>-71700</v>
       </c>
       <c r="E18" s="3">
-        <v>-61600</v>
+        <v>-62000</v>
       </c>
       <c r="F18" s="3">
-        <v>-45600</v>
+        <v>-45900</v>
       </c>
       <c r="G18" s="3">
-        <v>-61900</v>
+        <v>-62300</v>
       </c>
       <c r="H18" s="3">
-        <v>-39100</v>
+        <v>-39300</v>
       </c>
       <c r="I18" s="3">
-        <v>-43600</v>
+        <v>-43900</v>
       </c>
       <c r="J18" s="3">
-        <v>-42600</v>
+        <v>-42900</v>
       </c>
       <c r="K18" s="3">
         <v>-28600</v>
@@ -1162,7 +1162,7 @@
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
         <v>2100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-62400</v>
+        <v>-62800</v>
       </c>
       <c r="E21" s="3">
-        <v>-60100</v>
+        <v>-60500</v>
       </c>
       <c r="F21" s="3">
-        <v>-45300</v>
+        <v>-45600</v>
       </c>
       <c r="G21" s="3">
-        <v>-57600</v>
+        <v>-58000</v>
       </c>
       <c r="H21" s="3">
-        <v>-38000</v>
+        <v>-38300</v>
       </c>
       <c r="I21" s="3">
-        <v>-45200</v>
+        <v>-45500</v>
       </c>
       <c r="J21" s="3">
-        <v>-40200</v>
+        <v>-40500</v>
       </c>
       <c r="K21" s="3">
         <v>-21100</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69800</v>
+        <v>-70200</v>
       </c>
       <c r="E23" s="3">
-        <v>-66300</v>
+        <v>-66700</v>
       </c>
       <c r="F23" s="3">
-        <v>-50100</v>
+        <v>-50400</v>
       </c>
       <c r="G23" s="3">
-        <v>-61000</v>
+        <v>-61400</v>
       </c>
       <c r="H23" s="3">
-        <v>-39900</v>
+        <v>-40200</v>
       </c>
       <c r="I23" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="J23" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="K23" s="3">
         <v>-22000</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-69900</v>
+        <v>-70300</v>
       </c>
       <c r="E26" s="3">
-        <v>-66400</v>
+        <v>-66900</v>
       </c>
       <c r="F26" s="3">
-        <v>-50200</v>
+        <v>-50500</v>
       </c>
       <c r="G26" s="3">
-        <v>-61100</v>
+        <v>-61500</v>
       </c>
       <c r="H26" s="3">
-        <v>-39900</v>
+        <v>-40200</v>
       </c>
       <c r="I26" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="J26" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="K26" s="3">
         <v>-22000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70100</v>
+        <v>-70600</v>
       </c>
       <c r="E27" s="3">
-        <v>-66400</v>
+        <v>-66800</v>
       </c>
       <c r="F27" s="3">
-        <v>-50100</v>
+        <v>-50500</v>
       </c>
       <c r="G27" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="H27" s="3">
-        <v>-39700</v>
+        <v>-40000</v>
       </c>
       <c r="I27" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="J27" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="K27" s="3">
         <v>-22000</v>
@@ -1666,7 +1666,7 @@
         <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
         <v>-2100</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70100</v>
+        <v>-70600</v>
       </c>
       <c r="E33" s="3">
-        <v>-66400</v>
+        <v>-66800</v>
       </c>
       <c r="F33" s="3">
-        <v>-50100</v>
+        <v>-50500</v>
       </c>
       <c r="G33" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="H33" s="3">
-        <v>-39700</v>
+        <v>-40000</v>
       </c>
       <c r="I33" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="J33" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="K33" s="3">
         <v>-22000</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70100</v>
+        <v>-70600</v>
       </c>
       <c r="E35" s="3">
-        <v>-66400</v>
+        <v>-66800</v>
       </c>
       <c r="F35" s="3">
-        <v>-50100</v>
+        <v>-50500</v>
       </c>
       <c r="G35" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="H35" s="3">
-        <v>-39700</v>
+        <v>-40000</v>
       </c>
       <c r="I35" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="J35" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="K35" s="3">
         <v>-22000</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102100</v>
+        <v>102700</v>
       </c>
       <c r="E41" s="3">
-        <v>201900</v>
+        <v>203300</v>
       </c>
       <c r="F41" s="3">
-        <v>81700</v>
+        <v>82200</v>
       </c>
       <c r="G41" s="3">
-        <v>120600</v>
+        <v>121400</v>
       </c>
       <c r="H41" s="3">
-        <v>113700</v>
+        <v>114500</v>
       </c>
       <c r="I41" s="3">
-        <v>51800</v>
+        <v>52100</v>
       </c>
       <c r="J41" s="3">
-        <v>63800</v>
+        <v>64200</v>
       </c>
       <c r="K41" s="3">
         <v>100400</v>
@@ -1995,7 +1995,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61000</v>
+        <v>61400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166300</v>
+        <v>167500</v>
       </c>
       <c r="E46" s="3">
-        <v>206200</v>
+        <v>207600</v>
       </c>
       <c r="F46" s="3">
-        <v>86200</v>
+        <v>86800</v>
       </c>
       <c r="G46" s="3">
-        <v>123500</v>
+        <v>124300</v>
       </c>
       <c r="H46" s="3">
-        <v>116700</v>
+        <v>117500</v>
       </c>
       <c r="I46" s="3">
-        <v>54400</v>
+        <v>54800</v>
       </c>
       <c r="J46" s="3">
-        <v>66800</v>
+        <v>67200</v>
       </c>
       <c r="K46" s="3">
         <v>103400</v>
@@ -2205,13 +2205,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="E48" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="F48" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="G48" s="3">
         <v>2600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>184500</v>
+        <v>185700</v>
       </c>
       <c r="E54" s="3">
-        <v>225700</v>
+        <v>227200</v>
       </c>
       <c r="F54" s="3">
-        <v>106300</v>
+        <v>107000</v>
       </c>
       <c r="G54" s="3">
-        <v>126600</v>
+        <v>127400</v>
       </c>
       <c r="H54" s="3">
-        <v>118700</v>
+        <v>119500</v>
       </c>
       <c r="I54" s="3">
-        <v>57200</v>
+        <v>57600</v>
       </c>
       <c r="J54" s="3">
-        <v>70600</v>
+        <v>71100</v>
       </c>
       <c r="K54" s="3">
         <v>105900</v>
@@ -2619,22 +2619,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="E59" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="F59" s="3">
         <v>8300</v>
       </c>
       <c r="G59" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H59" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="I59" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J59" s="3">
         <v>6900</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="E60" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="F60" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G60" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H60" s="3">
         <v>8800</v>
       </c>
       <c r="I60" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="J60" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="K60" s="3">
         <v>5800</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E61" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="F61" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="G61" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="H61" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="I61" s="3">
         <v>5700</v>
       </c>
       <c r="J61" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K61" s="3">
         <v>5100</v>
@@ -2745,10 +2745,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72200</v>
+        <v>72600</v>
       </c>
       <c r="E62" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>114000</v>
+        <v>114700</v>
       </c>
       <c r="E66" s="3">
-        <v>103100</v>
+        <v>103800</v>
       </c>
       <c r="F66" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="G66" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="H66" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="I66" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="J66" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="K66" s="3">
         <v>10900</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-410000</v>
+        <v>-412700</v>
       </c>
       <c r="E72" s="3">
-        <v>-342200</v>
+        <v>-344500</v>
       </c>
       <c r="F72" s="3">
-        <v>-277600</v>
+        <v>-279400</v>
       </c>
       <c r="G72" s="3">
-        <v>-228000</v>
+        <v>-229600</v>
       </c>
       <c r="H72" s="3">
-        <v>-167400</v>
+        <v>-168500</v>
       </c>
       <c r="I72" s="3">
-        <v>-128500</v>
+        <v>-129400</v>
       </c>
       <c r="J72" s="3">
-        <v>-81600</v>
+        <v>-82100</v>
       </c>
       <c r="K72" s="3">
         <v>-38800</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="E76" s="3">
-        <v>122600</v>
+        <v>123400</v>
       </c>
       <c r="F76" s="3">
-        <v>61500</v>
+        <v>61900</v>
       </c>
       <c r="G76" s="3">
-        <v>101600</v>
+        <v>102300</v>
       </c>
       <c r="H76" s="3">
-        <v>100100</v>
+        <v>100700</v>
       </c>
       <c r="I76" s="3">
-        <v>42400</v>
+        <v>42700</v>
       </c>
       <c r="J76" s="3">
-        <v>57200</v>
+        <v>57600</v>
       </c>
       <c r="K76" s="3">
         <v>95000</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70100</v>
+        <v>-70600</v>
       </c>
       <c r="E81" s="3">
-        <v>-66400</v>
+        <v>-66800</v>
       </c>
       <c r="F81" s="3">
-        <v>-50100</v>
+        <v>-50500</v>
       </c>
       <c r="G81" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="H81" s="3">
-        <v>-39700</v>
+        <v>-40000</v>
       </c>
       <c r="I81" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="J81" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="K81" s="3">
         <v>-22000</v>
@@ -3506,7 +3506,7 @@
         <v>2500</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3">
         <v>2200</v>
@@ -3515,7 +3515,7 @@
         <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="E89" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="F89" s="3">
-        <v>-50700</v>
+        <v>-51000</v>
       </c>
       <c r="G89" s="3">
-        <v>-47400</v>
+        <v>-47700</v>
       </c>
       <c r="H89" s="3">
-        <v>-30700</v>
+        <v>-30900</v>
       </c>
       <c r="I89" s="3">
-        <v>-37600</v>
+        <v>-37900</v>
       </c>
       <c r="J89" s="3">
-        <v>-36900</v>
+        <v>-37100</v>
       </c>
       <c r="K89" s="3">
         <v>-25600</v>
@@ -3830,7 +3830,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3956,7 +3956,7 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
@@ -4166,22 +4166,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33300</v>
+        <v>-33500</v>
       </c>
       <c r="E100" s="3">
-        <v>147400</v>
+        <v>148300</v>
       </c>
       <c r="F100" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="G100" s="3">
-        <v>54100</v>
+        <v>54400</v>
       </c>
       <c r="H100" s="3">
-        <v>93100</v>
+        <v>93700</v>
       </c>
       <c r="I100" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="J100" s="3">
         <v>400</v>
@@ -4208,7 +4208,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="3">
         <v>1400</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-99900</v>
+        <v>-100500</v>
       </c>
       <c r="E102" s="3">
-        <v>120300</v>
+        <v>121100</v>
       </c>
       <c r="F102" s="3">
-        <v>-38900</v>
+        <v>-39100</v>
       </c>
       <c r="G102" s="3">
         <v>6900</v>
       </c>
       <c r="H102" s="3">
-        <v>61900</v>
+        <v>62300</v>
       </c>
       <c r="I102" s="3">
         <v>-12000</v>
       </c>
       <c r="J102" s="3">
-        <v>-38400</v>
+        <v>-38700</v>
       </c>
       <c r="K102" s="3">
         <v>-18900</v>

--- a/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRQR_YR_FIN.xlsx
@@ -733,13 +733,13 @@
         <v>2600</v>
       </c>
       <c r="F8" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G8" s="3">
         <v>2100</v>
       </c>
       <c r="H8" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
@@ -874,7 +874,7 @@
         <v>52900</v>
       </c>
       <c r="E12" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="F12" s="3">
         <v>39400</v>
@@ -889,7 +889,7 @@
         <v>32900</v>
       </c>
       <c r="J12" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="K12" s="3">
         <v>24400</v>
@@ -1057,7 +1057,7 @@
         <v>76900</v>
       </c>
       <c r="E17" s="3">
-        <v>64600</v>
+        <v>64700</v>
       </c>
       <c r="F17" s="3">
         <v>56200</v>
@@ -1069,7 +1069,7 @@
         <v>45600</v>
       </c>
       <c r="I17" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="J17" s="3">
         <v>44900</v>
@@ -1099,16 +1099,16 @@
         <v>-71700</v>
       </c>
       <c r="E18" s="3">
-        <v>-62000</v>
+        <v>-62100</v>
       </c>
       <c r="F18" s="3">
-        <v>-45900</v>
+        <v>-46000</v>
       </c>
       <c r="G18" s="3">
         <v>-62300</v>
       </c>
       <c r="H18" s="3">
-        <v>-39300</v>
+        <v>-39400</v>
       </c>
       <c r="I18" s="3">
         <v>-43900</v>
@@ -1198,13 +1198,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-62800</v>
+        <v>-62900</v>
       </c>
       <c r="E21" s="3">
-        <v>-60500</v>
+        <v>-60600</v>
       </c>
       <c r="F21" s="3">
-        <v>-45600</v>
+        <v>-45700</v>
       </c>
       <c r="G21" s="3">
         <v>-58000</v>
@@ -1213,7 +1213,7 @@
         <v>-38300</v>
       </c>
       <c r="I21" s="3">
-        <v>-45500</v>
+        <v>-45600</v>
       </c>
       <c r="J21" s="3">
         <v>-40500</v>
@@ -1282,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-70200</v>
+        <v>-70300</v>
       </c>
       <c r="E23" s="3">
-        <v>-66700</v>
+        <v>-66800</v>
       </c>
       <c r="F23" s="3">
         <v>-50400</v>
@@ -1297,7 +1297,7 @@
         <v>-40200</v>
       </c>
       <c r="I23" s="3">
-        <v>-47300</v>
+        <v>-47400</v>
       </c>
       <c r="J23" s="3">
         <v>-42400</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="E26" s="3">
         <v>-66900</v>
       </c>
       <c r="F26" s="3">
-        <v>-50500</v>
+        <v>-50600</v>
       </c>
       <c r="G26" s="3">
-        <v>-61500</v>
+        <v>-61600</v>
       </c>
       <c r="H26" s="3">
         <v>-40200</v>
       </c>
       <c r="I26" s="3">
-        <v>-47300</v>
+        <v>-47400</v>
       </c>
       <c r="J26" s="3">
         <v>-42400</v>
@@ -1453,13 +1453,13 @@
         <v>-70600</v>
       </c>
       <c r="E27" s="3">
-        <v>-66800</v>
+        <v>-66900</v>
       </c>
       <c r="F27" s="3">
         <v>-50500</v>
       </c>
       <c r="G27" s="3">
-        <v>-61200</v>
+        <v>-61300</v>
       </c>
       <c r="H27" s="3">
         <v>-40000</v>
@@ -1705,13 +1705,13 @@
         <v>-70600</v>
       </c>
       <c r="E33" s="3">
-        <v>-66800</v>
+        <v>-66900</v>
       </c>
       <c r="F33" s="3">
         <v>-50500</v>
       </c>
       <c r="G33" s="3">
-        <v>-61200</v>
+        <v>-61300</v>
       </c>
       <c r="H33" s="3">
         <v>-40000</v>
@@ -1789,13 +1789,13 @@
         <v>-70600</v>
       </c>
       <c r="E35" s="3">
-        <v>-66800</v>
+        <v>-66900</v>
       </c>
       <c r="F35" s="3">
         <v>-50500</v>
       </c>
       <c r="G35" s="3">
-        <v>-61200</v>
+        <v>-61300</v>
       </c>
       <c r="H35" s="3">
         <v>-40000</v>
@@ -1911,22 +1911,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102700</v>
+        <v>102800</v>
       </c>
       <c r="E41" s="3">
-        <v>203300</v>
+        <v>203500</v>
       </c>
       <c r="F41" s="3">
-        <v>82200</v>
+        <v>82300</v>
       </c>
       <c r="G41" s="3">
-        <v>121400</v>
+        <v>121500</v>
       </c>
       <c r="H41" s="3">
-        <v>114500</v>
+        <v>114600</v>
       </c>
       <c r="I41" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="J41" s="3">
         <v>64200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>167500</v>
+        <v>167600</v>
       </c>
       <c r="E46" s="3">
-        <v>207600</v>
+        <v>207800</v>
       </c>
       <c r="F46" s="3">
         <v>86800</v>
       </c>
       <c r="G46" s="3">
-        <v>124300</v>
+        <v>124400</v>
       </c>
       <c r="H46" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="I46" s="3">
-        <v>54800</v>
+        <v>54900</v>
       </c>
       <c r="J46" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="K46" s="3">
         <v>103400</v>
@@ -2208,7 +2208,7 @@
         <v>17600</v>
       </c>
       <c r="E48" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="F48" s="3">
         <v>20200</v>
@@ -2457,19 +2457,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185700</v>
+        <v>185900</v>
       </c>
       <c r="E54" s="3">
-        <v>227200</v>
+        <v>227400</v>
       </c>
       <c r="F54" s="3">
-        <v>107000</v>
+        <v>107100</v>
       </c>
       <c r="G54" s="3">
-        <v>127400</v>
+        <v>127500</v>
       </c>
       <c r="H54" s="3">
-        <v>119500</v>
+        <v>119600</v>
       </c>
       <c r="I54" s="3">
         <v>57600</v>
@@ -2619,7 +2619,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E59" s="3">
         <v>22900</v>
@@ -2673,7 +2673,7 @@
         <v>11900</v>
       </c>
       <c r="H60" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I60" s="3">
         <v>9200</v>
@@ -2706,7 +2706,7 @@
         <v>19600</v>
       </c>
       <c r="E61" s="3">
-        <v>58600</v>
+        <v>58700</v>
       </c>
       <c r="F61" s="3">
         <v>34600</v>
@@ -2745,7 +2745,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72600</v>
+        <v>72700</v>
       </c>
       <c r="E62" s="3">
         <v>15900</v>
@@ -2913,13 +2913,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>114700</v>
+        <v>114800</v>
       </c>
       <c r="E66" s="3">
-        <v>103800</v>
+        <v>103900</v>
       </c>
       <c r="F66" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="G66" s="3">
         <v>25200</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-412700</v>
+        <v>-413000</v>
       </c>
       <c r="E72" s="3">
-        <v>-344500</v>
+        <v>-344800</v>
       </c>
       <c r="F72" s="3">
-        <v>-279400</v>
+        <v>-279700</v>
       </c>
       <c r="G72" s="3">
-        <v>-229600</v>
+        <v>-229700</v>
       </c>
       <c r="H72" s="3">
-        <v>-168500</v>
+        <v>-168700</v>
       </c>
       <c r="I72" s="3">
-        <v>-129400</v>
+        <v>-129500</v>
       </c>
       <c r="J72" s="3">
-        <v>-82100</v>
+        <v>-82200</v>
       </c>
       <c r="K72" s="3">
         <v>-38800</v>
@@ -3309,10 +3309,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71000</v>
+        <v>71100</v>
       </c>
       <c r="E76" s="3">
-        <v>123400</v>
+        <v>123500</v>
       </c>
       <c r="F76" s="3">
         <v>61900</v>
@@ -3321,13 +3321,13 @@
         <v>102300</v>
       </c>
       <c r="H76" s="3">
-        <v>100700</v>
+        <v>100800</v>
       </c>
       <c r="I76" s="3">
         <v>42700</v>
       </c>
       <c r="J76" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="K76" s="3">
         <v>95000</v>
@@ -3443,13 +3443,13 @@
         <v>-70600</v>
       </c>
       <c r="E81" s="3">
-        <v>-66800</v>
+        <v>-66900</v>
       </c>
       <c r="F81" s="3">
         <v>-50500</v>
       </c>
       <c r="G81" s="3">
-        <v>-61200</v>
+        <v>-61300</v>
       </c>
       <c r="H81" s="3">
         <v>-40000</v>
@@ -3518,7 +3518,7 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -3758,7 +3758,7 @@
         <v>-28200</v>
       </c>
       <c r="F89" s="3">
-        <v>-51000</v>
+        <v>-51100</v>
       </c>
       <c r="G89" s="3">
         <v>-47700</v>
@@ -4169,16 +4169,16 @@
         <v>-33500</v>
       </c>
       <c r="E100" s="3">
-        <v>148300</v>
+        <v>148500</v>
       </c>
       <c r="F100" s="3">
         <v>15700</v>
       </c>
       <c r="G100" s="3">
-        <v>54400</v>
+        <v>54500</v>
       </c>
       <c r="H100" s="3">
-        <v>93700</v>
+        <v>93800</v>
       </c>
       <c r="I100" s="3">
         <v>28900</v>
@@ -4214,7 +4214,7 @@
         <v>1400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
@@ -4250,19 +4250,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100500</v>
+        <v>-100600</v>
       </c>
       <c r="E102" s="3">
-        <v>121100</v>
+        <v>121200</v>
       </c>
       <c r="F102" s="3">
-        <v>-39100</v>
+        <v>-39200</v>
       </c>
       <c r="G102" s="3">
         <v>6900</v>
       </c>
       <c r="H102" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="I102" s="3">
         <v>-12000</v>
